--- a/ORCL/ORCL.xlsx
+++ b/ORCL/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/ORCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1159" documentId="8_{784ADDE8-1A76-4D28-8788-11FE1C44B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E7609051-C33D-4A33-B79C-A0CACD5AC4FB}"/>
+  <xr:revisionPtr revIDLastSave="1250" documentId="8_{784ADDE8-1A76-4D28-8788-11FE1C44B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8518D79-9951-4EC1-B7DA-5534E431FB34}"/>
   <bookViews>
-    <workbookView xWindow="9200" yWindow="2060" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{C079B699-8A16-46DB-B769-137A43C54A59}"/>
+    <workbookView xWindow="6800" yWindow="870" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{C079B699-8A16-46DB-B769-137A43C54A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -702,24 +702,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -885,12 +881,12 @@
     <v>Finance</v>
     <v>5</v>
     <v>127.54</v>
-    <v>60.78</v>
-    <v>1.0096000000000001</v>
-    <v>-0.73</v>
-    <v>-9.2339999999999987E-5</v>
-    <v>-6.6949999999999996E-3</v>
-    <v>-0.01</v>
+    <v>61.65</v>
+    <v>1.0224</v>
+    <v>1.61</v>
+    <v>1.91E-3</v>
+    <v>1.4859000000000001E-2</v>
+    <v>0.21</v>
     <v>USD</v>
     <v>Oracle Corporation provides products and services that address enterprise information technology (IT) environments. The Company’s businesses include cloud and license, hardware, and services. Its products and services include enterprise applications and infrastructure offerings that are delivered worldwide through a variety of flexible and interoperable IT deployment models. Its cloud and license business markets, sells, and delivers a spectrum of enterprise applications and infrastructure technologies through its cloud and license offerings. Its hardware business provides a selection of enterprise hardware products and hardware-related software products, including Oracle Engineered Systems, servers, storage, industry-specific hardware offerings, operating systems, virtualization, management and other hardware-related software, and related hardware support. Its services business provides consulting services and advanced customer service. It sells to customers all over the world.</v>
     <v>164000</v>
@@ -898,26 +894,26 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2300 Oracle Way, AUSTIN, TX, 78741 US</v>
-    <v>108.65</v>
+    <v>110.53</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45194.998256029685</v>
+    <v>45205.998375253905</v>
     <v>4</v>
-    <v>107.5</v>
-    <v>296722614300</v>
+    <v>107.58</v>
+    <v>301221800000</v>
     <v>ORACLE CORPORATION</v>
     <v>ORACLE CORPORATION</v>
-    <v>108.45</v>
-    <v>32.424500000000002</v>
-    <v>109.03</v>
-    <v>108.3</v>
-    <v>108.29</v>
-    <v>2739821000</v>
+    <v>107.93</v>
+    <v>32.222299999999997</v>
+    <v>108.35</v>
+    <v>109.96</v>
+    <v>110.17</v>
+    <v>2739376000</v>
     <v>ORCL</v>
     <v>ORACLE CORPORATION (XNYS:ORCL)</v>
-    <v>8410012</v>
-    <v>14078054</v>
+    <v>8246950</v>
+    <v>13956284</v>
     <v>2005</v>
   </rv>
   <rv s="4">
@@ -1561,7 +1557,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>108.3</v>
+        <v>109.96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1570,7 +1566,7 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>2739.8209999999999</v>
+        <v>2739.3760000000002</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1579,7 +1575,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
-        <v>296722.61429999996</v>
+        <v>301221.78496000002</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1622,7 +1618,7 @@
       <c r="A1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1630,7 +1626,7 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1638,7 +1634,7 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1646,7 +1642,7 @@
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1654,7 +1650,7 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1662,7 +1658,7 @@
       <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1670,7 +1666,7 @@
       <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="10">
         <v>1977</v>
       </c>
     </row>
@@ -1699,27 +1695,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" s="10" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
@@ -1747,17 +1743,17 @@
   <dimension ref="B1:AK141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C89" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="H114" sqref="H114"/>
+      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.7265625" customWidth="1"/>
     <col min="2" max="2" width="19.36328125" customWidth="1"/>
-    <col min="20" max="26" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="15" max="26" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1770,28 +1766,46 @@
       <c r="B2" t="s">
         <v>33</v>
       </c>
-      <c r="T2" s="12">
+      <c r="N2" s="11">
+        <v>40360</v>
+      </c>
+      <c r="O2" s="11">
+        <v>40722</v>
+      </c>
+      <c r="P2" s="11">
+        <v>41086</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>41451</v>
+      </c>
+      <c r="R2" s="11">
+        <v>41816</v>
+      </c>
+      <c r="S2" s="11">
+        <v>42180</v>
+      </c>
+      <c r="T2" s="11">
         <v>42543</v>
       </c>
-      <c r="U2" s="12">
+      <c r="U2" s="11">
         <v>42913</v>
       </c>
-      <c r="V2" s="12">
+      <c r="V2" s="11">
         <v>43273</v>
       </c>
-      <c r="W2" s="12">
+      <c r="W2" s="11">
         <v>43637</v>
       </c>
-      <c r="X2" s="12">
+      <c r="X2" s="11">
         <v>44004</v>
       </c>
-      <c r="Y2" s="12">
+      <c r="Y2" s="11">
         <v>44368</v>
       </c>
-      <c r="Z2" s="12">
+      <c r="Z2" s="11">
         <v>44733</v>
       </c>
-      <c r="AA2" s="12">
+      <c r="AA2" s="11">
         <v>45097</v>
       </c>
     </row>
@@ -2038,8 +2052,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="16" t="s">
+    <row r="11" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2047,6 +2061,9 @@
       <c r="B12" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="S12" s="3">
+        <v>16618</v>
+      </c>
       <c r="T12" s="3">
         <v>16344</v>
       </c>
@@ -2076,6 +2093,9 @@
       <c r="B13" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="S13" s="3">
+        <v>8767</v>
+      </c>
       <c r="T13" s="3">
         <v>8475</v>
       </c>
@@ -2101,32 +2121,35 @@
         <v>9930</v>
       </c>
     </row>
-    <row r="14" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="13" t="s">
+    <row r="14" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T14" s="13">
+      <c r="S14" s="12">
+        <v>4106</v>
+      </c>
+      <c r="T14" s="12">
         <v>4178</v>
       </c>
-      <c r="U14" s="13">
+      <c r="U14" s="12">
         <v>4572</v>
       </c>
-      <c r="V14" s="13">
+      <c r="V14" s="12">
         <v>4855</v>
       </c>
-      <c r="W14" s="13">
+      <c r="W14" s="12">
         <v>5004</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="12">
         <v>5151</v>
       </c>
-      <c r="Y14" s="13">
+      <c r="Y14" s="12">
         <v>5390</v>
       </c>
-      <c r="Z14" s="13">
+      <c r="Z14" s="12">
         <v>5442</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="12">
         <v>5335</v>
       </c>
     </row>
@@ -2176,7 +2199,7 @@
       </c>
       <c r="S15" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>29491</v>
       </c>
       <c r="T15" s="4">
         <f t="shared" si="4"/>
@@ -2251,32 +2274,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T16" s="13">
+      <c r="S16" s="12">
+        <v>8600</v>
+      </c>
+      <c r="T16" s="12">
         <v>9115</v>
       </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12">
         <v>9771</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="12">
         <v>10666</v>
       </c>
-      <c r="W16" s="13">
+      <c r="W16" s="12">
         <v>10995</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="12">
         <v>10962</v>
       </c>
-      <c r="Y16" s="13">
+      <c r="Y16" s="12">
         <v>10932</v>
       </c>
-      <c r="Z16" s="13">
+      <c r="Z16" s="12">
         <v>11969</v>
       </c>
-      <c r="AA16" s="13">
+      <c r="AA16" s="12">
         <v>14960</v>
       </c>
     </row>
@@ -2326,7 +2352,7 @@
       </c>
       <c r="S17" s="3">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>20891</v>
       </c>
       <c r="T17" s="3">
         <f t="shared" si="6"/>
@@ -2401,129 +2427,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:37" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="17" t="s">
+    <row r="18" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I18" s="17" t="e">
+      <c r="I18" s="15" t="e">
         <f>I17/I15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="17" t="e">
+      <c r="J18" s="15" t="e">
         <f t="shared" ref="J18:M18" si="7">J17/J15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="17" t="e">
+      <c r="K18" s="15" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="17" t="e">
+      <c r="L18" s="15" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="17" t="e">
+      <c r="M18" s="15" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="17" t="e">
+      <c r="N18" s="15" t="e">
         <f>N17/N15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O18" s="17" t="e">
+      <c r="O18" s="15" t="e">
         <f t="shared" ref="O18:AK18" si="8">O17/O15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P18" s="17" t="e">
+      <c r="P18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q18" s="17" t="e">
+      <c r="Q18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R18" s="17" t="e">
+      <c r="R18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S18" s="17" t="e">
+      <c r="S18" s="15">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T18" s="17">
+        <v>0.70838560916889903</v>
+      </c>
+      <c r="T18" s="15">
         <f t="shared" si="8"/>
         <v>0.68565713694520125</v>
       </c>
-      <c r="U18" s="17">
+      <c r="U18" s="15">
         <f t="shared" si="8"/>
         <v>0.67846918292803315</v>
       </c>
-      <c r="V18" s="17">
+      <c r="V18" s="15">
         <f t="shared" si="8"/>
         <v>0.67172447754762854</v>
       </c>
-      <c r="W18" s="17">
+      <c r="W18" s="15">
         <f t="shared" si="8"/>
         <v>0.66254373580504577</v>
       </c>
-      <c r="X18" s="17">
+      <c r="X18" s="15">
         <f t="shared" si="8"/>
         <v>0.66294622267318515</v>
       </c>
-      <c r="Y18" s="17">
+      <c r="Y18" s="15">
         <f t="shared" si="8"/>
         <v>0.67942289082431595</v>
       </c>
-      <c r="Z18" s="17">
+      <c r="Z18" s="15">
         <f t="shared" si="8"/>
         <v>0.66800732275601904</v>
       </c>
-      <c r="AA18" s="17">
+      <c r="AA18" s="15">
         <f t="shared" si="8"/>
         <v>0.63588570315922699</v>
       </c>
-      <c r="AB18" s="17" t="e">
+      <c r="AB18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC18" s="17" t="e">
+      <c r="AC18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD18" s="17" t="e">
+      <c r="AD18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE18" s="17" t="e">
+      <c r="AE18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF18" s="17" t="e">
+      <c r="AF18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG18" s="17" t="e">
+      <c r="AG18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH18" s="17" t="e">
+      <c r="AH18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI18" s="17" t="e">
+      <c r="AI18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ18" s="17" t="e">
+      <c r="AJ18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK18" s="17" t="e">
+      <c r="AK18" s="15" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="14" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2531,6 +2557,9 @@
       <c r="B20" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="S20" s="3">
+        <v>2741</v>
+      </c>
       <c r="T20" s="3">
         <v>2405</v>
       </c>
@@ -2560,6 +2589,9 @@
       <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="S21" s="3">
+        <v>1519</v>
+      </c>
       <c r="T21" s="3">
         <v>1377</v>
       </c>
@@ -2585,32 +2617,35 @@
         <v>933</v>
       </c>
     </row>
-    <row r="22" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T22" s="13">
+      <c r="S22" s="12">
+        <v>949</v>
+      </c>
+      <c r="T22" s="12">
         <v>887</v>
       </c>
-      <c r="U22" s="13">
+      <c r="U22" s="12">
         <v>842</v>
       </c>
-      <c r="V22" s="13">
+      <c r="V22" s="12">
         <v>791</v>
       </c>
-      <c r="W22" s="13">
+      <c r="W22" s="12">
         <v>733</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="12">
         <v>687</v>
       </c>
-      <c r="Y22" s="13">
+      <c r="Y22" s="12">
         <v>720</v>
       </c>
-      <c r="Z22" s="13">
+      <c r="Z22" s="12">
         <v>676</v>
       </c>
-      <c r="AA22" s="13">
+      <c r="AA22" s="12">
         <v>639</v>
       </c>
     </row>
@@ -2660,7 +2695,7 @@
       </c>
       <c r="S23" s="3">
         <f t="shared" ref="S23" si="14">SUM(S20:S22)</f>
-        <v>0</v>
+        <v>5209</v>
       </c>
       <c r="T23" s="3">
         <f t="shared" ref="T23" si="15">SUM(T20:T22)</f>
@@ -2735,32 +2770,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="13" t="s">
+    <row r="24" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T24" s="13">
+      <c r="S24" s="12">
+        <v>3134</v>
+      </c>
+      <c r="T24" s="12">
         <v>2898</v>
       </c>
-      <c r="U24" s="13">
+      <c r="U24" s="12">
         <v>2443</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="12">
         <v>2186</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="12">
         <v>1847</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="12">
         <v>1540</v>
       </c>
-      <c r="Y24" s="13">
+      <c r="Y24" s="12">
         <v>1333</v>
       </c>
-      <c r="Z24" s="13">
+      <c r="Z24" s="12">
         <v>1305</v>
       </c>
-      <c r="AA24" s="13">
+      <c r="AA24" s="12">
         <v>1342</v>
       </c>
     </row>
@@ -2810,7 +2848,7 @@
       </c>
       <c r="S25" s="3">
         <f t="shared" ref="S25" si="38">S23-S24</f>
-        <v>0</v>
+        <v>2075</v>
       </c>
       <c r="T25" s="3">
         <f t="shared" ref="T25" si="39">T23-T24</f>
@@ -2885,129 +2923,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:37" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="17" t="s">
+    <row r="26" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I26" s="17" t="e">
+      <c r="I26" s="15" t="e">
         <f>I25/I23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="17" t="e">
+      <c r="J26" s="15" t="e">
         <f t="shared" ref="J26:M26" si="57">J25/J23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="17" t="e">
+      <c r="K26" s="15" t="e">
         <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L26" s="17" t="e">
+      <c r="L26" s="15" t="e">
         <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="17" t="e">
+      <c r="M26" s="15" t="e">
         <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N26" s="17" t="e">
+      <c r="N26" s="15" t="e">
         <f>N25/N23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O26" s="17" t="e">
+      <c r="O26" s="15" t="e">
         <f t="shared" ref="O26" si="58">O25/O23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P26" s="17" t="e">
+      <c r="P26" s="15" t="e">
         <f t="shared" ref="P26" si="59">P25/P23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q26" s="17" t="e">
+      <c r="Q26" s="15" t="e">
         <f t="shared" ref="Q26" si="60">Q25/Q23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R26" s="17" t="e">
+      <c r="R26" s="15" t="e">
         <f t="shared" ref="R26" si="61">R25/R23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S26" s="17" t="e">
+      <c r="S26" s="15">
         <f t="shared" ref="S26" si="62">S25/S23</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T26" s="17">
+        <v>0.39834901132655021</v>
+      </c>
+      <c r="T26" s="15">
         <f t="shared" ref="T26" si="63">T25/T23</f>
         <v>0.37931034482758619</v>
       </c>
-      <c r="U26" s="17">
+      <c r="U26" s="15">
         <f t="shared" ref="U26" si="64">U25/U23</f>
         <v>0.41160886319845857</v>
       </c>
-      <c r="V26" s="17">
+      <c r="V26" s="15">
         <f t="shared" ref="V26" si="65">V25/V23</f>
         <v>0.45254194840971701</v>
       </c>
-      <c r="W26" s="17">
+      <c r="W26" s="15">
         <f t="shared" ref="W26" si="66">W25/W23</f>
         <v>0.50134989200863933</v>
       </c>
-      <c r="X26" s="17">
+      <c r="X26" s="15">
         <f t="shared" ref="X26" si="67">X25/X23</f>
         <v>0.55271565495207664</v>
       </c>
-      <c r="Y26" s="17">
+      <c r="Y26" s="15">
         <f t="shared" ref="Y26" si="68">Y25/Y23</f>
         <v>0.60315570110151828</v>
       </c>
-      <c r="Z26" s="17">
+      <c r="Z26" s="15">
         <f t="shared" ref="Z26" si="69">Z25/Z23</f>
         <v>0.59000942507068799</v>
       </c>
-      <c r="AA26" s="17">
+      <c r="AA26" s="15">
         <f t="shared" ref="AA26" si="70">AA25/AA23</f>
         <v>0.59010384850335984</v>
       </c>
-      <c r="AB26" s="17" t="e">
+      <c r="AB26" s="15" t="e">
         <f t="shared" ref="AB26" si="71">AB25/AB23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC26" s="17" t="e">
+      <c r="AC26" s="15" t="e">
         <f t="shared" ref="AC26" si="72">AC25/AC23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD26" s="17" t="e">
+      <c r="AD26" s="15" t="e">
         <f t="shared" ref="AD26" si="73">AD25/AD23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE26" s="17" t="e">
+      <c r="AE26" s="15" t="e">
         <f t="shared" ref="AE26" si="74">AE25/AE23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF26" s="17" t="e">
+      <c r="AF26" s="15" t="e">
         <f t="shared" ref="AF26" si="75">AF25/AF23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG26" s="17" t="e">
+      <c r="AG26" s="15" t="e">
         <f t="shared" ref="AG26" si="76">AG25/AG23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH26" s="17" t="e">
+      <c r="AH26" s="15" t="e">
         <f t="shared" ref="AH26" si="77">AH25/AH23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI26" s="17" t="e">
+      <c r="AI26" s="15" t="e">
         <f t="shared" ref="AI26" si="78">AI25/AI23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ26" s="17" t="e">
+      <c r="AJ26" s="15" t="e">
         <f t="shared" ref="AJ26" si="79">AJ25/AJ23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK26" s="17" t="e">
+      <c r="AK26" s="15" t="e">
         <f t="shared" ref="AK26" si="80">AK25/AK23</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="27" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16" t="s">
+    <row r="27" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="14" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3015,6 +3053,9 @@
       <c r="B28" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="S28" s="3">
+        <v>1775</v>
+      </c>
       <c r="T28" s="3">
         <v>1728</v>
       </c>
@@ -3044,6 +3085,9 @@
       <c r="B29" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="S29" s="3">
+        <v>1096</v>
+      </c>
       <c r="T29" s="3">
         <v>1028</v>
       </c>
@@ -3069,32 +3113,35 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="30" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="13" t="s">
+    <row r="30" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="T30" s="13">
+      <c r="S30" s="12">
+        <v>682</v>
+      </c>
+      <c r="T30" s="12">
         <v>635</v>
       </c>
-      <c r="U30" s="13">
+      <c r="U30" s="12">
         <v>646</v>
       </c>
-      <c r="V30" s="13">
+      <c r="V30" s="12">
         <v>695</v>
       </c>
-      <c r="W30" s="13">
+      <c r="W30" s="12">
         <v>643</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="12">
         <v>631</v>
       </c>
-      <c r="Y30" s="13">
+      <c r="Y30" s="12">
         <v>647</v>
       </c>
-      <c r="Z30" s="13">
+      <c r="Z30" s="12">
         <v>632</v>
       </c>
-      <c r="AA30" s="13">
+      <c r="AA30" s="12">
         <v>645</v>
       </c>
     </row>
@@ -3144,7 +3191,7 @@
       </c>
       <c r="S31" s="3">
         <f t="shared" ref="S31" si="86">SUM(S28:S30)</f>
-        <v>0</v>
+        <v>3553</v>
       </c>
       <c r="T31" s="3">
         <f t="shared" ref="T31" si="87">SUM(T28:T30)</f>
@@ -3219,32 +3266,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="13" t="s">
+    <row r="32" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T32" s="13">
+      <c r="S32" s="12">
+        <v>2810</v>
+      </c>
+      <c r="T32" s="12">
         <v>2634</v>
       </c>
-      <c r="U32" s="13">
+      <c r="U32" s="12">
         <v>2668</v>
       </c>
-      <c r="V32" s="13">
+      <c r="V32" s="12">
         <v>2739</v>
       </c>
-      <c r="W32" s="13">
+      <c r="W32" s="12">
         <v>2703</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="12">
         <v>2656</v>
       </c>
-      <c r="Y32" s="13">
+      <c r="Y32" s="12">
         <v>2393</v>
       </c>
-      <c r="Z32" s="13">
+      <c r="Z32" s="12">
         <v>2539</v>
       </c>
-      <c r="AA32" s="13">
+      <c r="AA32" s="12">
         <v>4490</v>
       </c>
     </row>
@@ -3294,7 +3344,7 @@
       </c>
       <c r="S33" s="3">
         <f t="shared" ref="S33" si="110">S31-S32</f>
-        <v>0</v>
+        <v>743</v>
       </c>
       <c r="T33" s="3">
         <f t="shared" ref="T33" si="111">T31-T32</f>
@@ -3369,129 +3419,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:37" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="17" t="s">
+    <row r="34" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="I34" s="17" t="e">
+      <c r="I34" s="15" t="e">
         <f>I33/I31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J34" s="17" t="e">
+      <c r="J34" s="15" t="e">
         <f t="shared" ref="J34:M34" si="129">J33/J31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K34" s="17" t="e">
+      <c r="K34" s="15" t="e">
         <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L34" s="17" t="e">
+      <c r="L34" s="15" t="e">
         <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M34" s="17" t="e">
+      <c r="M34" s="15" t="e">
         <f t="shared" si="129"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N34" s="17" t="e">
+      <c r="N34" s="15" t="e">
         <f>N33/N31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O34" s="17" t="e">
+      <c r="O34" s="15" t="e">
         <f t="shared" ref="O34" si="130">O33/O31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P34" s="17" t="e">
+      <c r="P34" s="15" t="e">
         <f t="shared" ref="P34" si="131">P33/P31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q34" s="17" t="e">
+      <c r="Q34" s="15" t="e">
         <f t="shared" ref="Q34" si="132">Q33/Q31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R34" s="17" t="e">
+      <c r="R34" s="15" t="e">
         <f t="shared" ref="R34" si="133">R33/R31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S34" s="17" t="e">
+      <c r="S34" s="15">
         <f t="shared" ref="S34" si="134">S33/S31</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T34" s="17">
+        <v>0.20911905432029271</v>
+      </c>
+      <c r="T34" s="15">
         <f t="shared" ref="T34" si="135">T33/T31</f>
         <v>0.22323798289590091</v>
       </c>
-      <c r="U34" s="17">
+      <c r="U34" s="15">
         <f t="shared" ref="U34" si="136">U33/U31</f>
         <v>0.20547945205479451</v>
       </c>
-      <c r="V34" s="17">
+      <c r="V34" s="15">
         <f t="shared" ref="V34" si="137">V33/V31</f>
         <v>0.1929876252209782</v>
       </c>
-      <c r="W34" s="17">
+      <c r="W34" s="15">
         <f t="shared" ref="W34" si="138">W33/W31</f>
         <v>0.16574074074074074</v>
       </c>
-      <c r="X34" s="17">
+      <c r="X34" s="15">
         <f t="shared" ref="X34" si="139">X33/X31</f>
         <v>0.14488087572440439</v>
       </c>
-      <c r="Y34" s="17">
+      <c r="Y34" s="15">
         <f t="shared" ref="Y34" si="140">Y33/Y31</f>
         <v>0.20787818603111552</v>
       </c>
-      <c r="Z34" s="17">
+      <c r="Z34" s="15">
         <f t="shared" ref="Z34" si="141">Z33/Z31</f>
         <v>0.2078003120124805</v>
       </c>
-      <c r="AA34" s="17">
+      <c r="AA34" s="15">
         <f t="shared" ref="AA34" si="142">AA33/AA31</f>
         <v>0.19735430818734359</v>
       </c>
-      <c r="AB34" s="17" t="e">
+      <c r="AB34" s="15" t="e">
         <f t="shared" ref="AB34" si="143">AB33/AB31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC34" s="17" t="e">
+      <c r="AC34" s="15" t="e">
         <f t="shared" ref="AC34" si="144">AC33/AC31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD34" s="17" t="e">
+      <c r="AD34" s="15" t="e">
         <f t="shared" ref="AD34" si="145">AD33/AD31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE34" s="17" t="e">
+      <c r="AE34" s="15" t="e">
         <f t="shared" ref="AE34" si="146">AE33/AE31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF34" s="17" t="e">
+      <c r="AF34" s="15" t="e">
         <f t="shared" ref="AF34" si="147">AF33/AF31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG34" s="17" t="e">
+      <c r="AG34" s="15" t="e">
         <f t="shared" ref="AG34" si="148">AG33/AG31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH34" s="17" t="e">
+      <c r="AH34" s="15" t="e">
         <f t="shared" ref="AH34" si="149">AH33/AH31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI34" s="17" t="e">
+      <c r="AI34" s="15" t="e">
         <f t="shared" ref="AI34" si="150">AI33/AI31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ34" s="17" t="e">
+      <c r="AJ34" s="15" t="e">
         <f t="shared" ref="AJ34" si="151">AJ33/AJ31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK34" s="17" t="e">
+      <c r="AK34" s="15" t="e">
         <f t="shared" ref="AK34" si="152">AK33/AK31</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="35" spans="2:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="18" t="s">
+    <row r="35" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="16" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3541,7 +3591,7 @@
       </c>
       <c r="S36" s="3">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>38253</v>
       </c>
       <c r="T36" s="3">
         <f t="shared" si="154"/>
@@ -3616,123 +3666,123 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="13" t="s">
+    <row r="37" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="13">
+      <c r="I37" s="12">
         <f>I32+I24+I16</f>
         <v>0</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="12">
         <f t="shared" ref="J37:M37" si="155">J32+J24+J16</f>
         <v>0</v>
       </c>
-      <c r="K37" s="13">
+      <c r="K37" s="12">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="L37" s="13">
+      <c r="L37" s="12">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="M37" s="13">
+      <c r="M37" s="12">
         <f t="shared" si="155"/>
         <v>0</v>
       </c>
-      <c r="N37" s="13">
+      <c r="N37" s="12">
         <f>N32+N24+N16</f>
         <v>0</v>
       </c>
-      <c r="O37" s="13">
+      <c r="O37" s="12">
         <f t="shared" ref="O37:AK37" si="156">O32+O24+O16</f>
         <v>0</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="13">
+      <c r="Q37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="R37" s="13">
+      <c r="R37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="S37" s="13">
+      <c r="S37" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="T37" s="13">
+        <v>14544</v>
+      </c>
+      <c r="T37" s="12">
         <f t="shared" si="156"/>
         <v>14647</v>
       </c>
-      <c r="U37" s="13">
+      <c r="U37" s="12">
         <f t="shared" si="156"/>
         <v>14882</v>
       </c>
-      <c r="V37" s="13">
+      <c r="V37" s="12">
         <f t="shared" si="156"/>
         <v>15591</v>
       </c>
-      <c r="W37" s="13">
+      <c r="W37" s="12">
         <f t="shared" si="156"/>
         <v>15545</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="12">
         <f t="shared" si="156"/>
         <v>15158</v>
       </c>
-      <c r="Y37" s="13">
+      <c r="Y37" s="12">
         <f t="shared" si="156"/>
         <v>14658</v>
       </c>
-      <c r="Z37" s="13">
+      <c r="Z37" s="12">
         <f t="shared" si="156"/>
         <v>15813</v>
       </c>
-      <c r="AA37" s="13">
+      <c r="AA37" s="12">
         <f>AA32+AA24+AA16</f>
         <v>20792</v>
       </c>
-      <c r="AB37" s="13">
+      <c r="AB37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AC37" s="13">
+      <c r="AC37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AD37" s="13">
+      <c r="AD37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AE37" s="13">
+      <c r="AE37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AF37" s="13">
+      <c r="AF37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AG37" s="13">
+      <c r="AG37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AH37" s="13">
+      <c r="AH37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AI37" s="13">
+      <c r="AI37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AJ37" s="13">
+      <c r="AJ37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
-      <c r="AK37" s="13">
+      <c r="AK37" s="12">
         <f t="shared" si="156"/>
         <v>0</v>
       </c>
@@ -3783,7 +3833,7 @@
       </c>
       <c r="S38" s="3">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>23709</v>
       </c>
       <c r="T38" s="3">
         <f t="shared" si="158"/>
@@ -3858,129 +3908,129 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="19" t="s">
+    <row r="39" spans="2:37" s="17" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B39" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="I39" s="19" t="e">
+      <c r="I39" s="17" t="e">
         <f>I38/I36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J39" s="19" t="e">
+      <c r="J39" s="17" t="e">
         <f t="shared" ref="J39:M39" si="159">J38/J36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="19" t="e">
+      <c r="K39" s="17" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L39" s="19" t="e">
+      <c r="L39" s="17" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="19" t="e">
+      <c r="M39" s="17" t="e">
         <f t="shared" si="159"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="19" t="e">
+      <c r="N39" s="17" t="e">
         <f>N38/N36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="19" t="e">
+      <c r="O39" s="17" t="e">
         <f t="shared" ref="O39:AK39" si="160">O38/O36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="19" t="e">
+      <c r="P39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q39" s="19" t="e">
+      <c r="Q39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R39" s="19" t="e">
+      <c r="R39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S39" s="19" t="e">
+      <c r="S39" s="17">
         <f t="shared" si="160"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T39" s="19">
+        <v>0.61979452591953577</v>
+      </c>
+      <c r="T39" s="17">
         <f t="shared" si="160"/>
         <v>0.60474404296084405</v>
       </c>
-      <c r="U39" s="19">
+      <c r="U39" s="17">
         <f t="shared" si="160"/>
         <v>0.60732473152325916</v>
       </c>
-      <c r="V39" s="19">
+      <c r="V39" s="17">
         <f t="shared" si="160"/>
         <v>0.6090325492752896</v>
       </c>
-      <c r="W39" s="19">
+      <c r="W39" s="17">
         <f t="shared" si="160"/>
         <v>0.60671456762637255</v>
       </c>
-      <c r="X39" s="19">
+      <c r="X39" s="17">
         <f t="shared" si="160"/>
         <v>0.6120495495495496</v>
       </c>
-      <c r="Y39" s="19">
+      <c r="Y39" s="17">
         <f t="shared" si="160"/>
         <v>0.63790420197129516</v>
       </c>
-      <c r="Z39" s="19">
+      <c r="Z39" s="17">
         <f t="shared" si="160"/>
         <v>0.62740339302544768</v>
       </c>
-      <c r="AA39" s="19">
+      <c r="AA39" s="17">
         <f t="shared" si="160"/>
         <v>0.58377707490891617</v>
       </c>
-      <c r="AB39" s="19" t="e">
+      <c r="AB39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC39" s="19" t="e">
+      <c r="AC39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD39" s="19" t="e">
+      <c r="AD39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE39" s="19" t="e">
+      <c r="AE39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF39" s="19" t="e">
+      <c r="AF39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG39" s="19" t="e">
+      <c r="AG39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH39" s="19" t="e">
+      <c r="AH39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI39" s="19" t="e">
+      <c r="AI39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ39" s="19" t="e">
+      <c r="AJ39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK39" s="19" t="e">
+      <c r="AK39" s="17" t="e">
         <f t="shared" si="160"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="14" t="s">
+    <row r="40" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B40" s="13" t="s">
         <v>40</v>
       </c>
     </row>
@@ -4021,16 +4071,13 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <v>19719</v>
       </c>
       <c r="R41" s="3">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <v>20323</v>
       </c>
       <c r="S41" s="3">
-        <f t="shared" si="162"/>
-        <v>0</v>
+        <v>21107</v>
       </c>
       <c r="T41" s="3">
         <f t="shared" si="162"/>
@@ -4142,16 +4189,13 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
-        <f t="shared" si="164"/>
-        <v>0</v>
+        <v>11158</v>
       </c>
       <c r="R42" s="3">
-        <f t="shared" si="164"/>
-        <v>0</v>
+        <v>11946</v>
       </c>
       <c r="S42" s="3">
-        <f t="shared" si="164"/>
-        <v>0</v>
+        <v>11380</v>
       </c>
       <c r="T42" s="3">
         <f t="shared" si="164"/>
@@ -4226,129 +4270,126 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13" t="s">
+    <row r="43" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B43" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="I43" s="13">
+      <c r="I43" s="12">
         <f>I30+I22+I14</f>
         <v>0</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="12">
         <f t="shared" ref="J43:M43" si="165">J30+J22+J14</f>
         <v>0</v>
       </c>
-      <c r="K43" s="13">
+      <c r="K43" s="12">
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="L43" s="13">
+      <c r="L43" s="12">
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="M43" s="13">
+      <c r="M43" s="12">
         <f t="shared" si="165"/>
         <v>0</v>
       </c>
-      <c r="N43" s="13">
+      <c r="N43" s="12">
         <f>N30+N22+N14</f>
         <v>0</v>
       </c>
-      <c r="O43" s="13">
+      <c r="O43" s="12">
         <f t="shared" ref="O43:AK43" si="166">O30+O22+O14</f>
         <v>0</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="Q43" s="13">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="R43" s="13">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="S43" s="13">
-        <f t="shared" si="166"/>
-        <v>0</v>
-      </c>
-      <c r="T43" s="13">
+      <c r="Q43" s="12">
+        <v>6303</v>
+      </c>
+      <c r="R43" s="12">
+        <v>6006</v>
+      </c>
+      <c r="S43" s="12">
+        <v>5739</v>
+      </c>
+      <c r="T43" s="12">
         <f t="shared" si="166"/>
         <v>5700</v>
       </c>
-      <c r="U43" s="13">
+      <c r="U43" s="12">
         <f t="shared" si="166"/>
         <v>6060</v>
       </c>
-      <c r="V43" s="13">
+      <c r="V43" s="12">
         <f t="shared" si="166"/>
         <v>6341</v>
       </c>
-      <c r="W43" s="13">
+      <c r="W43" s="12">
         <f t="shared" si="166"/>
         <v>6380</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="12">
         <f t="shared" si="166"/>
         <v>6469</v>
       </c>
-      <c r="Y43" s="13">
+      <c r="Y43" s="12">
         <f t="shared" si="166"/>
         <v>6757</v>
       </c>
-      <c r="Z43" s="13">
+      <c r="Z43" s="12">
         <f t="shared" si="166"/>
         <v>6750</v>
       </c>
-      <c r="AA43" s="13">
+      <c r="AA43" s="12">
         <f t="shared" si="166"/>
         <v>6619</v>
       </c>
-      <c r="AB43" s="13">
+      <c r="AB43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AC43" s="13">
+      <c r="AC43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AD43" s="13">
+      <c r="AD43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AE43" s="13">
+      <c r="AE43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AF43" s="13">
+      <c r="AF43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AG43" s="13">
+      <c r="AG43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AH43" s="13">
+      <c r="AH43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AI43" s="13">
+      <c r="AI43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AJ43" s="13">
+      <c r="AJ43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
-      <c r="AK43" s="13">
+      <c r="AK43" s="12">
         <f t="shared" si="166"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:37" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
       <c r="I44" s="4">
@@ -4385,15 +4426,15 @@
       </c>
       <c r="Q44" s="4">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>37180</v>
       </c>
       <c r="R44" s="4">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="S44" s="4">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>38226</v>
       </c>
       <c r="T44" s="4">
         <f t="shared" si="168"/>
@@ -4468,13 +4509,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B45" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="46" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="16" t="s">
+    <row r="46" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="14" t="s">
         <v>55</v>
       </c>
     </row>
@@ -4482,6 +4523,18 @@
       <c r="B47" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="Q47" s="3">
+        <f>17142+910</f>
+        <v>18052</v>
+      </c>
+      <c r="R47" s="3">
+        <f>18206+1121</f>
+        <v>19327</v>
+      </c>
+      <c r="S47" s="3">
+        <f>18847+1485</f>
+        <v>20332</v>
+      </c>
       <c r="T47" s="3">
         <v>21714</v>
       </c>
@@ -4511,6 +4564,18 @@
       <c r="B48" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="Q48" s="3">
+        <f>9411+457</f>
+        <v>9868</v>
+      </c>
+      <c r="R48" s="3">
+        <f>9416+456</f>
+        <v>9872</v>
+      </c>
+      <c r="S48" s="3">
+        <f>8535+608</f>
+        <v>9143</v>
+      </c>
       <c r="T48" s="3">
         <v>7276</v>
       </c>
@@ -4540,6 +4605,15 @@
       <c r="B49" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="Q49" s="3">
+        <v>5346</v>
+      </c>
+      <c r="R49" s="3">
+        <v>5372</v>
+      </c>
+      <c r="S49" s="3">
+        <v>5205</v>
+      </c>
       <c r="T49" s="3">
         <v>4668</v>
       </c>
@@ -4565,32 +4639,41 @@
         <v>3274</v>
       </c>
     </row>
-    <row r="50" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="13" t="s">
+    <row r="50" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T50" s="13">
+      <c r="Q50" s="12">
+        <v>3914</v>
+      </c>
+      <c r="R50" s="12">
+        <v>3704</v>
+      </c>
+      <c r="S50" s="12">
+        <v>3546</v>
+      </c>
+      <c r="T50" s="12">
         <v>3389</v>
       </c>
-      <c r="U50" s="13">
+      <c r="U50" s="12">
         <v>3359</v>
       </c>
-      <c r="V50" s="13">
+      <c r="V50" s="12">
         <v>3394</v>
       </c>
-      <c r="W50" s="13">
+      <c r="W50" s="12">
         <v>3240</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="12">
         <v>3106</v>
       </c>
-      <c r="Y50" s="13">
+      <c r="Y50" s="12">
         <v>3021</v>
       </c>
-      <c r="Z50" s="13">
+      <c r="Z50" s="12">
         <v>3205</v>
       </c>
-      <c r="AA50" s="13">
+      <c r="AA50" s="12">
         <v>5594</v>
       </c>
     </row>
@@ -4632,15 +4715,15 @@
       </c>
       <c r="Q51" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>37180</v>
       </c>
       <c r="R51" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="S51" s="4">
         <f t="shared" si="170"/>
-        <v>0</v>
+        <v>38226</v>
       </c>
       <c r="T51" s="4">
         <f t="shared" si="170"/>
@@ -4715,8 +4798,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="16" t="s">
+    <row r="52" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B52" s="14" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4778,152 +4861,152 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="55" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13" t="s">
+    <row r="55" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B55" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="T55" s="13">
+      <c r="T55" s="12">
         <v>2751</v>
       </c>
-      <c r="U55" s="13">
+      <c r="U55" s="12">
         <v>2793</v>
       </c>
-      <c r="V55" s="13">
+      <c r="V55" s="12">
         <v>2888</v>
       </c>
-      <c r="W55" s="13">
+      <c r="W55" s="12">
         <v>2853</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="12">
         <v>2816</v>
       </c>
-      <c r="Y55" s="13">
+      <c r="Y55" s="12">
         <v>2530</v>
       </c>
-      <c r="Z55" s="13">
+      <c r="Z55" s="12">
         <v>2692</v>
       </c>
-      <c r="AA55" s="13">
+      <c r="AA55" s="12">
         <v>4761</v>
       </c>
     </row>
-    <row r="56" spans="2:37" s="21" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="21" t="s">
+    <row r="56" spans="2:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B56" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="I56" s="21">
+      <c r="I56" s="18">
         <f>SUM(I53:I55)</f>
         <v>0</v>
       </c>
-      <c r="J56" s="21">
+      <c r="J56" s="18">
         <f t="shared" ref="J56:M56" si="171">SUM(J53:J55)</f>
         <v>0</v>
       </c>
-      <c r="K56" s="21">
+      <c r="K56" s="18">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="L56" s="21">
+      <c r="L56" s="18">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="M56" s="21">
+      <c r="M56" s="18">
         <f t="shared" si="171"/>
         <v>0</v>
       </c>
-      <c r="N56" s="21">
+      <c r="N56" s="18">
         <f>SUM(N53:N55)</f>
         <v>0</v>
       </c>
-      <c r="O56" s="21">
+      <c r="O56" s="18">
         <f t="shared" ref="O56:AK56" si="172">SUM(O53:O55)</f>
         <v>0</v>
       </c>
-      <c r="P56" s="21">
+      <c r="P56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="Q56" s="21">
+      <c r="Q56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="R56" s="21">
+      <c r="R56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="S56" s="21">
+      <c r="S56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="T56" s="21">
+      <c r="T56" s="18">
         <f t="shared" si="172"/>
         <v>7479</v>
       </c>
-      <c r="U56" s="21">
+      <c r="U56" s="18">
         <f t="shared" si="172"/>
         <v>7452</v>
       </c>
-      <c r="V56" s="21">
+      <c r="V56" s="18">
         <f t="shared" si="172"/>
         <v>8081</v>
       </c>
-      <c r="W56" s="21">
+      <c r="W56" s="18">
         <f t="shared" si="172"/>
         <v>7995</v>
       </c>
-      <c r="X56" s="21">
+      <c r="X56" s="18">
         <f t="shared" si="172"/>
         <v>7938</v>
       </c>
-      <c r="Y56" s="21">
+      <c r="Y56" s="18">
         <f t="shared" si="172"/>
         <v>7855</v>
       </c>
-      <c r="Z56" s="21">
+      <c r="Z56" s="18">
         <f t="shared" si="172"/>
         <v>8877</v>
       </c>
-      <c r="AA56" s="21">
+      <c r="AA56" s="18">
         <f t="shared" si="172"/>
         <v>13564</v>
       </c>
-      <c r="AB56" s="21">
+      <c r="AB56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AC56" s="21">
+      <c r="AC56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AD56" s="21">
+      <c r="AD56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AE56" s="21">
+      <c r="AE56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AF56" s="21">
+      <c r="AF56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AG56" s="21">
+      <c r="AG56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AH56" s="21">
+      <c r="AH56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AI56" s="21">
+      <c r="AI56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AJ56" s="21">
+      <c r="AJ56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
-      <c r="AK56" s="21">
+      <c r="AK56" s="18">
         <f t="shared" si="172"/>
         <v>0</v>
       </c>
@@ -4966,15 +5049,15 @@
       </c>
       <c r="Q57" s="4">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>37180</v>
       </c>
       <c r="R57" s="4">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="S57" s="4">
         <f t="shared" si="174"/>
-        <v>0</v>
+        <v>38226</v>
       </c>
       <c r="T57" s="4">
         <f t="shared" si="174"/>
@@ -5049,8 +5132,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="16" t="s">
+    <row r="58" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5199,152 +5282,152 @@
         <v>190</v>
       </c>
     </row>
-    <row r="64" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="13" t="s">
+    <row r="64" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B64" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="T64" s="13">
+      <c r="T64" s="12">
         <v>458</v>
       </c>
-      <c r="U64" s="13">
+      <c r="U64" s="12">
         <v>463</v>
       </c>
-      <c r="V64" s="13">
+      <c r="V64" s="12">
         <v>588</v>
       </c>
-      <c r="W64" s="13">
+      <c r="W64" s="12">
         <v>443</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="12">
         <v>250</v>
       </c>
-      <c r="Y64" s="13">
+      <c r="Y64" s="12">
         <v>431</v>
       </c>
-      <c r="Z64" s="13">
+      <c r="Z64" s="12">
         <v>191</v>
       </c>
-      <c r="AA64" s="13">
+      <c r="AA64" s="12">
         <v>490</v>
       </c>
     </row>
-    <row r="65" spans="2:37" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20" t="s">
+    <row r="65" spans="2:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B65" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="I65" s="20">
+      <c r="I65" s="18">
         <f>SUM(I59:I64)</f>
         <v>0</v>
       </c>
-      <c r="J65" s="20">
+      <c r="J65" s="18">
         <f t="shared" ref="J65:M65" si="175">SUM(J59:J64)</f>
         <v>0</v>
       </c>
-      <c r="K65" s="20">
+      <c r="K65" s="18">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="L65" s="20">
+      <c r="L65" s="18">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="M65" s="20">
+      <c r="M65" s="18">
         <f t="shared" si="175"/>
         <v>0</v>
       </c>
-      <c r="N65" s="20">
+      <c r="N65" s="18">
         <f>SUM(N59:N64)</f>
         <v>0</v>
       </c>
-      <c r="O65" s="20">
+      <c r="O65" s="18">
         <f t="shared" ref="O65:AK65" si="176">SUM(O59:O64)</f>
         <v>0</v>
       </c>
-      <c r="P65" s="20">
+      <c r="P65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="Q65" s="20">
+      <c r="Q65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="R65" s="20">
+      <c r="R65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="S65" s="20">
+      <c r="S65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="T65" s="20">
+      <c r="T65" s="18">
         <f t="shared" si="176"/>
         <v>16964</v>
       </c>
-      <c r="U65" s="20">
+      <c r="U65" s="18">
         <f t="shared" si="176"/>
         <v>17427</v>
       </c>
-      <c r="V65" s="20">
+      <c r="V65" s="18">
         <f t="shared" si="176"/>
         <v>18071</v>
       </c>
-      <c r="W65" s="20">
+      <c r="W65" s="18">
         <f t="shared" si="176"/>
         <v>17976</v>
       </c>
-      <c r="X65" s="20">
+      <c r="X65" s="18">
         <f t="shared" si="176"/>
         <v>17234</v>
       </c>
-      <c r="Y65" s="20">
+      <c r="Y65" s="18">
         <f t="shared" si="176"/>
         <v>17411</v>
       </c>
-      <c r="Z65" s="20">
+      <c r="Z65" s="18">
         <f t="shared" si="176"/>
         <v>22637</v>
       </c>
-      <c r="AA65" s="20">
+      <c r="AA65" s="18">
         <f t="shared" si="176"/>
         <v>23297</v>
       </c>
-      <c r="AB65" s="20">
+      <c r="AB65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AC65" s="20">
+      <c r="AC65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AD65" s="20">
+      <c r="AD65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AE65" s="20">
+      <c r="AE65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AF65" s="20">
+      <c r="AF65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AG65" s="20">
+      <c r="AG65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AH65" s="20">
+      <c r="AH65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AI65" s="20">
+      <c r="AI65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AJ65" s="20">
+      <c r="AJ65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
-      <c r="AK65" s="20">
+      <c r="AK65" s="18">
         <f t="shared" si="176"/>
         <v>0</v>
       </c>
@@ -5387,15 +5470,15 @@
       </c>
       <c r="Q66" s="3">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>37180</v>
       </c>
       <c r="R66" s="3">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="S66" s="3">
         <f t="shared" si="178"/>
-        <v>0</v>
+        <v>38226</v>
       </c>
       <c r="T66" s="3">
         <f t="shared" si="178"/>
@@ -5470,8 +5553,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="16" t="s">
+    <row r="67" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B67" s="14" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5504,32 +5587,32 @@
         <v>-3505</v>
       </c>
     </row>
-    <row r="69" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13" t="s">
+    <row r="69" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B69" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="T69" s="13">
+      <c r="T69" s="12">
         <v>305</v>
       </c>
-      <c r="U69" s="13">
+      <c r="U69" s="12">
         <v>565</v>
       </c>
-      <c r="V69" s="13">
+      <c r="V69" s="12">
         <v>1237</v>
       </c>
-      <c r="W69" s="13">
+      <c r="W69" s="12">
         <v>815</v>
       </c>
-      <c r="X69" s="13">
+      <c r="X69" s="12">
         <v>162</v>
       </c>
-      <c r="Y69" s="13">
+      <c r="Y69" s="12">
         <v>282</v>
       </c>
-      <c r="Z69" s="13">
+      <c r="Z69" s="12">
         <v>-522</v>
       </c>
-      <c r="AA69" s="13">
+      <c r="AA69" s="12">
         <v>-462</v>
       </c>
     </row>
@@ -5571,15 +5654,15 @@
       </c>
       <c r="Q70" s="3">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>37180</v>
       </c>
       <c r="R70" s="3">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="S70" s="3">
         <f t="shared" si="180"/>
-        <v>0</v>
+        <v>38226</v>
       </c>
       <c r="T70" s="3">
         <f t="shared" si="180"/>
@@ -5654,32 +5737,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13" t="s">
+    <row r="71" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="T71" s="13">
+      <c r="T71" s="12">
         <v>-2541</v>
       </c>
-      <c r="U71" s="13">
+      <c r="U71" s="12">
         <v>-2228</v>
       </c>
-      <c r="V71" s="13">
+      <c r="V71" s="12">
         <v>-9066</v>
       </c>
-      <c r="W71" s="13">
+      <c r="W71" s="12">
         <v>-1185</v>
       </c>
-      <c r="X71" s="13">
+      <c r="X71" s="12">
         <v>-1928</v>
       </c>
-      <c r="Y71" s="13">
+      <c r="Y71" s="12">
         <v>747</v>
       </c>
-      <c r="Z71" s="13">
+      <c r="Z71" s="12">
         <v>-932</v>
       </c>
-      <c r="AA71" s="13">
+      <c r="AA71" s="12">
         <v>-623</v>
       </c>
     </row>
@@ -5721,15 +5804,15 @@
       </c>
       <c r="Q72" s="3">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>37180</v>
       </c>
       <c r="R72" s="3">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>38275</v>
       </c>
       <c r="S72" s="3">
         <f t="shared" si="182"/>
-        <v>0</v>
+        <v>38226</v>
       </c>
       <c r="T72" s="3">
         <f t="shared" si="182"/>
@@ -5805,244 +5888,244 @@
       </c>
     </row>
     <row r="73" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="74" spans="2:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="22" t="s">
+    <row r="74" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="I74" s="22" t="e">
+      <c r="I74" s="19" t="e">
         <f>I72/I76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J74" s="22" t="e">
+      <c r="J74" s="19" t="e">
         <f t="shared" ref="J74:M74" si="183">J72/J76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K74" s="22" t="e">
+      <c r="K74" s="19" t="e">
         <f t="shared" si="183"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L74" s="22" t="e">
+      <c r="L74" s="19" t="e">
         <f t="shared" si="183"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M74" s="22" t="e">
+      <c r="M74" s="19" t="e">
         <f t="shared" si="183"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N74" s="22" t="e">
+      <c r="N74" s="19" t="e">
         <f>N72/N76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O74" s="22" t="e">
+      <c r="O74" s="19" t="e">
         <f t="shared" ref="O74:AK74" si="184">O72/O76</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P74" s="22" t="e">
+      <c r="P74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q74" s="22" t="e">
+      <c r="Q74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R74" s="22" t="e">
+      <c r="R74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S74" s="22" t="e">
+      <c r="S74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T74" s="22">
+      <c r="T74" s="19">
         <f t="shared" si="184"/>
         <v>2.1087420042643923</v>
       </c>
-      <c r="U74" s="22">
+      <c r="U74" s="19">
         <f t="shared" si="184"/>
         <v>2.2969623329283109</v>
       </c>
-      <c r="V74" s="22">
+      <c r="V74" s="19">
         <f t="shared" si="184"/>
         <v>0.92817277359864114</v>
       </c>
-      <c r="W74" s="22">
+      <c r="W74" s="19">
         <f t="shared" si="184"/>
         <v>3.0498073747936156</v>
       </c>
-      <c r="X74" s="22">
+      <c r="X74" s="19">
         <f t="shared" si="184"/>
         <v>3.15633758953597</v>
       </c>
-      <c r="Y74" s="22">
+      <c r="Y74" s="19">
         <f t="shared" si="184"/>
         <v>4.6675721561969441</v>
       </c>
-      <c r="Z74" s="22">
+      <c r="Z74" s="19">
         <f t="shared" si="184"/>
         <v>2.4877777777777776</v>
       </c>
-      <c r="AA74" s="22">
+      <c r="AA74" s="19">
         <f t="shared" si="184"/>
         <v>3.1539317507418398</v>
       </c>
-      <c r="AB74" s="22" t="e">
+      <c r="AB74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC74" s="22" t="e">
+      <c r="AC74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD74" s="22" t="e">
+      <c r="AD74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE74" s="22" t="e">
+      <c r="AE74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF74" s="22" t="e">
+      <c r="AF74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG74" s="22" t="e">
+      <c r="AG74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH74" s="22" t="e">
+      <c r="AH74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI74" s="22" t="e">
+      <c r="AI74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ74" s="22" t="e">
+      <c r="AJ74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK74" s="22" t="e">
+      <c r="AK74" s="19" t="e">
         <f t="shared" si="184"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="2:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="22" t="s">
+    <row r="75" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="I75" s="22" t="e">
+      <c r="I75" s="19" t="e">
         <f>I72/I77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J75" s="22" t="e">
+      <c r="J75" s="19" t="e">
         <f t="shared" ref="J75:M75" si="185">J72/J77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K75" s="22" t="e">
+      <c r="K75" s="19" t="e">
         <f t="shared" si="185"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L75" s="22" t="e">
+      <c r="L75" s="19" t="e">
         <f t="shared" si="185"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M75" s="22" t="e">
+      <c r="M75" s="19" t="e">
         <f t="shared" si="185"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N75" s="22" t="e">
+      <c r="N75" s="19" t="e">
         <f>N72/N77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O75" s="22" t="e">
+      <c r="O75" s="19" t="e">
         <f t="shared" ref="O75:AK75" si="186">O72/O77</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P75" s="22" t="e">
+      <c r="P75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q75" s="22" t="e">
+      <c r="Q75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R75" s="22" t="e">
+      <c r="R75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S75" s="22" t="e">
+      <c r="S75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T75" s="22">
+      <c r="T75" s="19">
         <f t="shared" si="186"/>
         <v>2.0675958188153309</v>
       </c>
-      <c r="U75" s="22">
+      <c r="U75" s="19">
         <f t="shared" si="186"/>
         <v>2.24140384159355</v>
       </c>
-      <c r="V75" s="22">
+      <c r="V75" s="19">
         <f t="shared" si="186"/>
         <v>0.90254837187352521</v>
       </c>
-      <c r="W75" s="22">
+      <c r="W75" s="19">
         <f t="shared" si="186"/>
         <v>2.969721329046088</v>
       </c>
-      <c r="X75" s="22">
+      <c r="X75" s="19">
         <f t="shared" si="186"/>
         <v>3.0768063145112325</v>
       </c>
-      <c r="Y75" s="22">
+      <c r="Y75" s="19">
         <f t="shared" si="186"/>
         <v>4.5486432825943082</v>
       </c>
-      <c r="Z75" s="22">
+      <c r="Z75" s="19">
         <f t="shared" si="186"/>
         <v>2.4109834888729362</v>
       </c>
-      <c r="AA75" s="22">
+      <c r="AA75" s="19">
         <f t="shared" si="186"/>
         <v>3.0741142443962399</v>
       </c>
-      <c r="AB75" s="22" t="e">
+      <c r="AB75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC75" s="22" t="e">
+      <c r="AC75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD75" s="22" t="e">
+      <c r="AD75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE75" s="22" t="e">
+      <c r="AE75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF75" s="22" t="e">
+      <c r="AF75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG75" s="22" t="e">
+      <c r="AG75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH75" s="22" t="e">
+      <c r="AH75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI75" s="22" t="e">
+      <c r="AI75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ75" s="22" t="e">
+      <c r="AJ75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK75" s="22" t="e">
+      <c r="AK75" s="19" t="e">
         <f t="shared" si="186"/>
         <v>#DIV/0!</v>
       </c>
@@ -6106,13 +6189,13 @@
       </c>
     </row>
     <row r="78" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="79" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="14" t="s">
+    <row r="79" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="13" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="16" t="s">
+    <row r="80" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="14" t="s">
         <v>84</v>
       </c>
     </row>
@@ -6212,37 +6295,37 @@
         <v>6915</v>
       </c>
     </row>
-    <row r="84" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="13" t="s">
+    <row r="84" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B84" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="S84" s="13">
+      <c r="S84" s="12">
         <f>2220+314</f>
         <v>2534</v>
       </c>
-      <c r="T84" s="13">
+      <c r="T84" s="12">
         <f>2591+212</f>
         <v>2803</v>
       </c>
-      <c r="U84" s="13">
+      <c r="U84" s="12">
         <v>3137</v>
       </c>
-      <c r="V84" s="13">
+      <c r="V84" s="12">
         <v>3762</v>
       </c>
-      <c r="W84" s="13">
+      <c r="W84" s="12">
         <v>3425</v>
       </c>
-      <c r="X84" s="13">
+      <c r="X84" s="12">
         <v>3532</v>
       </c>
-      <c r="Y84" s="13">
+      <c r="Y84" s="12">
         <v>3604</v>
       </c>
-      <c r="Z84" s="13">
+      <c r="Z84" s="12">
         <v>3778</v>
       </c>
-      <c r="AA84" s="13">
+      <c r="AA84" s="12">
         <v>3902</v>
       </c>
     </row>
@@ -6367,8 +6450,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="16" t="s">
+    <row r="86" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B86" s="14" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6500,155 +6583,155 @@
         <v>12226</v>
       </c>
     </row>
-    <row r="91" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B91" s="13" t="s">
+    <row r="91" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B91" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="S91" s="13">
+      <c r="S91" s="12">
         <v>2746</v>
       </c>
-      <c r="T91" s="13">
+      <c r="T91" s="12">
         <v>3043</v>
       </c>
-      <c r="U91" s="13">
+      <c r="U91" s="12">
         <v>3294</v>
       </c>
-      <c r="V91" s="13">
+      <c r="V91" s="12">
         <v>3975</v>
       </c>
-      <c r="W91" s="13">
+      <c r="W91" s="12">
         <v>4317</v>
       </c>
-      <c r="X91" s="13">
+      <c r="X91" s="12">
         <v>6295</v>
       </c>
-      <c r="Y91" s="13">
+      <c r="Y91" s="12">
         <v>8490</v>
       </c>
-      <c r="Z91" s="13">
+      <c r="Z91" s="12">
         <v>9915</v>
       </c>
-      <c r="AA91" s="13">
+      <c r="AA91" s="12">
         <v>11987</v>
       </c>
     </row>
-    <row r="92" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B92" s="13" t="s">
+    <row r="92" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B92" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="I92" s="13">
+      <c r="I92" s="12">
         <f>SUM(I87:I91)</f>
         <v>0</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="12">
         <f t="shared" ref="J92:M92" si="189">SUM(J87:J91)</f>
         <v>0</v>
       </c>
-      <c r="K92" s="13">
+      <c r="K92" s="12">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="L92" s="13">
+      <c r="L92" s="12">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="M92" s="13">
+      <c r="M92" s="12">
         <f t="shared" si="189"/>
         <v>0</v>
       </c>
-      <c r="N92" s="13">
+      <c r="N92" s="12">
         <f>SUM(N87:N91)</f>
         <v>0</v>
       </c>
-      <c r="O92" s="13">
+      <c r="O92" s="12">
         <f t="shared" ref="O92:AK92" si="190">SUM(O87:O91)</f>
         <v>0</v>
       </c>
-      <c r="P92" s="13">
+      <c r="P92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="Q92" s="13">
+      <c r="Q92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="R92" s="13">
+      <c r="R92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="S92" s="13">
+      <c r="S92" s="12">
         <f t="shared" si="190"/>
         <v>48383</v>
       </c>
-      <c r="T92" s="13">
+      <c r="T92" s="12">
         <f t="shared" si="190"/>
         <v>47867</v>
       </c>
-      <c r="U92" s="13">
+      <c r="U92" s="12">
         <f t="shared" si="190"/>
         <v>60476</v>
       </c>
-      <c r="V92" s="13">
+      <c r="V92" s="12">
         <f t="shared" si="190"/>
         <v>61692</v>
       </c>
-      <c r="W92" s="13">
+      <c r="W92" s="12">
         <f t="shared" si="190"/>
         <v>62323</v>
       </c>
-      <c r="X92" s="13">
+      <c r="X92" s="12">
         <f t="shared" si="190"/>
         <v>63298</v>
       </c>
-      <c r="Y92" s="13">
+      <c r="Y92" s="12">
         <f t="shared" si="190"/>
         <v>75540</v>
       </c>
-      <c r="Z92" s="13">
+      <c r="Z92" s="12">
         <f t="shared" si="190"/>
         <v>77664</v>
       </c>
-      <c r="AA92" s="13">
+      <c r="AA92" s="12">
         <f t="shared" si="190"/>
         <v>113380</v>
       </c>
-      <c r="AB92" s="13">
+      <c r="AB92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AC92" s="13">
+      <c r="AC92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AD92" s="13">
+      <c r="AD92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AE92" s="13">
+      <c r="AE92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AF92" s="13">
+      <c r="AF92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AG92" s="13">
+      <c r="AG92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AH92" s="13">
+      <c r="AH92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AI92" s="13">
+      <c r="AI92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AJ92" s="13">
+      <c r="AJ92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
-      <c r="AK92" s="13">
+      <c r="AK92" s="12">
         <f t="shared" si="190"/>
         <v>0</v>
       </c>
@@ -6774,8 +6857,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B94" s="16" t="s">
+    <row r="94" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B94" s="14" t="s">
         <v>87</v>
       </c>
     </row>
@@ -6907,35 +6990,35 @@
         <v>8970</v>
       </c>
     </row>
-    <row r="99" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B99" s="13" t="s">
+    <row r="99" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B99" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="S99" s="13">
+      <c r="S99" s="12">
         <v>3317</v>
       </c>
-      <c r="T99" s="13">
+      <c r="T99" s="12">
         <v>3333</v>
       </c>
-      <c r="U99" s="13">
+      <c r="U99" s="12">
         <v>3583</v>
       </c>
-      <c r="V99" s="13">
+      <c r="V99" s="12">
         <v>3957</v>
       </c>
-      <c r="W99" s="13">
+      <c r="W99" s="12">
         <v>3554</v>
       </c>
-      <c r="X99" s="13">
+      <c r="X99" s="12">
         <v>4737</v>
       </c>
-      <c r="Y99" s="13">
+      <c r="Y99" s="12">
         <v>4377</v>
       </c>
-      <c r="Z99" s="13">
+      <c r="Z99" s="12">
         <v>4144</v>
       </c>
-      <c r="AA99" s="13">
+      <c r="AA99" s="12">
         <v>6802</v>
       </c>
     </row>
@@ -7060,8 +7143,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="16" t="s">
+    <row r="101" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B101" s="14" t="s">
         <v>86</v>
       </c>
     </row>
@@ -7161,155 +7244,155 @@
         <v>5772</v>
       </c>
     </row>
-    <row r="105" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="13" t="s">
+    <row r="105" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B105" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="S105" s="13">
+      <c r="S105" s="12">
         <v>2254</v>
       </c>
-      <c r="T105" s="13">
+      <c r="T105" s="12">
         <v>2169</v>
       </c>
-      <c r="U105" s="13">
+      <c r="U105" s="12">
         <v>2774</v>
       </c>
-      <c r="V105" s="13">
+      <c r="V105" s="12">
         <v>2297</v>
       </c>
-      <c r="W105" s="13">
+      <c r="W105" s="12">
         <v>2748</v>
       </c>
-      <c r="X105" s="13">
+      <c r="X105" s="12">
         <v>3791</v>
       </c>
-      <c r="Y105" s="13">
+      <c r="Y105" s="12">
         <v>4787</v>
       </c>
-      <c r="Z105" s="13">
+      <c r="Z105" s="12">
         <v>5203</v>
       </c>
-      <c r="AA105" s="13">
+      <c r="AA105" s="12">
         <v>6469</v>
       </c>
     </row>
-    <row r="106" spans="2:37" s="20" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="20" t="s">
+    <row r="106" spans="2:37" s="18" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B106" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="I106" s="20">
+      <c r="I106" s="18">
         <f>SUM(I102:I105)</f>
         <v>0</v>
       </c>
-      <c r="J106" s="20">
+      <c r="J106" s="18">
         <f t="shared" ref="J106:M106" si="195">SUM(J102:J105)</f>
         <v>0</v>
       </c>
-      <c r="K106" s="20">
+      <c r="K106" s="18">
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="L106" s="20">
+      <c r="L106" s="18">
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="M106" s="20">
+      <c r="M106" s="18">
         <f t="shared" si="195"/>
         <v>0</v>
       </c>
-      <c r="N106" s="20">
+      <c r="N106" s="18">
         <f>SUM(N102:N105)</f>
         <v>0</v>
       </c>
-      <c r="O106" s="20">
+      <c r="O106" s="18">
         <f t="shared" ref="O106:AK106" si="196">SUM(O102:O105)</f>
         <v>0</v>
       </c>
-      <c r="P106" s="20">
+      <c r="P106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="Q106" s="20">
+      <c r="Q106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="R106" s="20">
+      <c r="R106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="S106" s="20">
+      <c r="S106" s="18">
         <f t="shared" si="196"/>
         <v>46599</v>
       </c>
-      <c r="T106" s="20">
+      <c r="T106" s="18">
         <f t="shared" si="196"/>
         <v>47182</v>
       </c>
-      <c r="U106" s="20">
+      <c r="U106" s="18">
         <f t="shared" si="196"/>
         <v>56567</v>
       </c>
-      <c r="V106" s="20">
+      <c r="V106" s="18">
         <f t="shared" si="196"/>
         <v>71854</v>
       </c>
-      <c r="W106" s="20">
+      <c r="W106" s="18">
         <f t="shared" si="196"/>
         <v>67716</v>
       </c>
-      <c r="X106" s="20">
+      <c r="X106" s="18">
         <f t="shared" si="196"/>
         <v>85521</v>
       </c>
-      <c r="Y106" s="20">
+      <c r="Y106" s="18">
         <f t="shared" si="196"/>
         <v>100991</v>
       </c>
-      <c r="Z106" s="20">
+      <c r="Z106" s="18">
         <f t="shared" si="196"/>
         <v>95554</v>
       </c>
-      <c r="AA106" s="20">
+      <c r="AA106" s="18">
         <f t="shared" si="196"/>
         <v>109738</v>
       </c>
-      <c r="AB106" s="20">
+      <c r="AB106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AC106" s="20">
+      <c r="AC106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AD106" s="20">
+      <c r="AD106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AE106" s="20">
+      <c r="AE106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AF106" s="20">
+      <c r="AF106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AG106" s="20">
+      <c r="AG106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AH106" s="20">
+      <c r="AH106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AI106" s="20">
+      <c r="AI106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AJ106" s="20">
+      <c r="AJ106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
-      <c r="AK106" s="20">
+      <c r="AK106" s="18">
         <f t="shared" si="196"/>
         <v>0</v>
       </c>
@@ -7435,8 +7518,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="2:37" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="16" t="s">
+    <row r="108" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B108" s="14" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7536,35 +7619,35 @@
         <v>-27620</v>
       </c>
     </row>
-    <row r="112" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B112" s="13" t="s">
+    <row r="112" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B112" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="S112" s="13">
+      <c r="S112" s="12">
         <v>-996</v>
       </c>
-      <c r="T112" s="13">
+      <c r="T112" s="12">
         <v>-816</v>
       </c>
-      <c r="U112" s="13">
+      <c r="U112" s="12">
         <v>-803</v>
       </c>
-      <c r="V112" s="13">
+      <c r="V112" s="12">
         <v>-1689</v>
       </c>
-      <c r="W112" s="13">
+      <c r="W112" s="12">
         <v>-1628</v>
       </c>
-      <c r="X112" s="13">
+      <c r="X112" s="12">
         <v>-1716</v>
       </c>
-      <c r="Y112" s="13">
+      <c r="Y112" s="12">
         <v>-1175</v>
       </c>
-      <c r="Z112" s="13">
+      <c r="Z112" s="12">
         <v>-1692</v>
       </c>
-      <c r="AA112" s="13">
+      <c r="AA112" s="12">
         <v>-1522</v>
       </c>
     </row>
@@ -7689,155 +7772,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B114" s="13" t="s">
+    <row r="114" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B114" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="S114" s="13">
+      <c r="S114" s="12">
         <v>435</v>
       </c>
-      <c r="T114" s="13">
+      <c r="T114" s="12">
         <v>501</v>
       </c>
-      <c r="U114" s="13">
+      <c r="U114" s="12">
         <v>386</v>
       </c>
-      <c r="V114" s="13">
+      <c r="V114" s="12">
         <v>501</v>
       </c>
-      <c r="W114" s="13">
+      <c r="W114" s="12">
         <v>578</v>
       </c>
-      <c r="X114" s="13">
+      <c r="X114" s="12">
         <v>643</v>
       </c>
-      <c r="Y114" s="13">
+      <c r="Y114" s="12">
         <v>714</v>
       </c>
-      <c r="Z114" s="13">
+      <c r="Z114" s="12">
         <v>452</v>
       </c>
-      <c r="AA114" s="13">
+      <c r="AA114" s="12">
         <v>483</v>
       </c>
     </row>
-    <row r="115" spans="2:37" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B115" s="23" t="s">
+    <row r="115" spans="2:37" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="I115" s="23">
+      <c r="I115" s="20">
         <f>SUM(I113:I114)</f>
         <v>0</v>
       </c>
-      <c r="J115" s="23">
+      <c r="J115" s="20">
         <f t="shared" ref="J115:M115" si="201">SUM(J113:J114)</f>
         <v>0</v>
       </c>
-      <c r="K115" s="23">
+      <c r="K115" s="20">
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
-      <c r="L115" s="23">
+      <c r="L115" s="20">
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
-      <c r="M115" s="23">
+      <c r="M115" s="20">
         <f t="shared" si="201"/>
         <v>0</v>
       </c>
-      <c r="N115" s="23">
+      <c r="N115" s="20">
         <f>SUM(N113:N114)</f>
         <v>0</v>
       </c>
-      <c r="O115" s="23">
+      <c r="O115" s="20">
         <f t="shared" ref="O115:AK115" si="202">SUM(O113:O114)</f>
         <v>0</v>
       </c>
-      <c r="P115" s="23">
+      <c r="P115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="Q115" s="23">
+      <c r="Q115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="R115" s="23">
+      <c r="R115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="S115" s="23">
+      <c r="S115" s="20">
         <f t="shared" si="202"/>
         <v>49098</v>
       </c>
-      <c r="T115" s="23">
+      <c r="T115" s="20">
         <f t="shared" si="202"/>
         <v>47790</v>
       </c>
-      <c r="U115" s="23">
+      <c r="U115" s="20">
         <f t="shared" si="202"/>
         <v>54246</v>
       </c>
-      <c r="V115" s="23">
+      <c r="V115" s="20">
         <f t="shared" si="202"/>
         <v>46873</v>
       </c>
-      <c r="W115" s="23">
+      <c r="W115" s="20">
         <f t="shared" si="202"/>
         <v>22363</v>
       </c>
-      <c r="X115" s="23">
+      <c r="X115" s="20">
         <f t="shared" si="202"/>
         <v>12717</v>
       </c>
-      <c r="Y115" s="23">
+      <c r="Y115" s="20">
         <f t="shared" si="202"/>
         <v>5952</v>
       </c>
-      <c r="Z115" s="23">
+      <c r="Z115" s="20">
         <f t="shared" si="202"/>
         <v>-5768</v>
       </c>
-      <c r="AA115" s="23">
+      <c r="AA115" s="20">
         <f t="shared" si="202"/>
         <v>1556</v>
       </c>
-      <c r="AB115" s="23">
+      <c r="AB115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AC115" s="23">
+      <c r="AC115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AD115" s="23">
+      <c r="AD115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AE115" s="23">
+      <c r="AE115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AF115" s="23">
+      <c r="AF115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AG115" s="23">
+      <c r="AG115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AH115" s="23">
+      <c r="AH115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AI115" s="23">
+      <c r="AI115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AJ115" s="23">
+      <c r="AJ115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
-      <c r="AK115" s="23">
+      <c r="AK115" s="20">
         <f t="shared" si="202"/>
         <v>0</v>
       </c>
@@ -7963,8 +8046,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="14" t="s">
+    <row r="117" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B117" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -7997,32 +8080,32 @@
         <v>17165</v>
       </c>
     </row>
-    <row r="119" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B119" s="13" t="s">
+    <row r="119" spans="2:37" s="12" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B119" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="T119" s="13">
+      <c r="T119" s="12">
         <v>-1189</v>
       </c>
-      <c r="U119" s="13">
+      <c r="U119" s="12">
         <v>-2021</v>
       </c>
-      <c r="V119" s="13">
+      <c r="V119" s="12">
         <v>-1736</v>
       </c>
-      <c r="W119" s="13">
+      <c r="W119" s="12">
         <v>-1660</v>
       </c>
-      <c r="X119" s="13">
+      <c r="X119" s="12">
         <v>-1564</v>
       </c>
-      <c r="Y119" s="13">
+      <c r="Y119" s="12">
         <v>-2135</v>
       </c>
-      <c r="Z119" s="13">
+      <c r="Z119" s="12">
         <v>-4511</v>
       </c>
-      <c r="AA119" s="13">
+      <c r="AA119" s="12">
         <v>-8695</v>
       </c>
     </row>
@@ -8266,8 +8349,8 @@
     </row>
     <row r="126" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="127" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="128" spans="2:37" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B128" s="14" t="s">
+    <row r="128" spans="2:37" s="13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B128" s="13" t="s">
         <v>125</v>
       </c>
     </row>
@@ -8393,657 +8476,657 @@
         <v>2696</v>
       </c>
     </row>
-    <row r="131" spans="2:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B131" s="22" t="s">
+    <row r="131" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B131" s="19" t="s">
         <v>127</v>
       </c>
-      <c r="N131" s="22" t="e">
+      <c r="N131" s="19" t="e">
         <f>N129/N51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O131" s="22" t="e">
+      <c r="O131" s="19" t="e">
         <f t="shared" ref="O131:Z131" si="209">O129/O51</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P131" s="22" t="e">
+      <c r="P131" s="19" t="e">
         <f t="shared" si="209"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q131" s="22" t="e">
+      <c r="Q131" s="19">
         <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R131" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="R131" s="19">
         <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S131" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="S131" s="19">
         <f t="shared" si="209"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T131" s="22">
+        <v>0</v>
+      </c>
+      <c r="T131" s="19">
         <f t="shared" si="209"/>
         <v>3.8362369422625315</v>
       </c>
-      <c r="U131" s="22">
+      <c r="U131" s="19">
         <f t="shared" si="209"/>
         <v>4.0352958298052508</v>
       </c>
-      <c r="V131" s="22">
+      <c r="V131" s="19">
         <f t="shared" si="209"/>
         <v>4.59475308177048</v>
       </c>
-      <c r="W131" s="22">
+      <c r="W131" s="19">
         <f t="shared" si="209"/>
         <v>4.3067858046878955</v>
       </c>
-      <c r="X131" s="22">
+      <c r="X131" s="19">
         <f t="shared" si="209"/>
         <v>4.1242955871813249</v>
       </c>
-      <c r="Y131" s="22">
+      <c r="Y131" s="19">
         <f t="shared" si="209"/>
         <v>4.5383803947725987</v>
       </c>
-      <c r="Z131" s="22">
+      <c r="Z131" s="19">
         <f t="shared" si="209"/>
         <v>5.2683081998114982</v>
       </c>
-      <c r="AA131" s="22">
+      <c r="AA131" s="19">
         <f>AA129/AA51</f>
         <v>4.4719253713416345</v>
       </c>
     </row>
-    <row r="132" spans="2:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="22" t="s">
+    <row r="132" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B132" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="N132" s="22" t="e">
+      <c r="N132" s="19" t="e">
         <f>N129/N72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O132" s="22" t="e">
+      <c r="O132" s="19" t="e">
         <f t="shared" ref="O132:Z132" si="210">O129/O72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P132" s="22" t="e">
+      <c r="P132" s="19" t="e">
         <f t="shared" si="210"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q132" s="22" t="e">
+      <c r="Q132" s="19">
         <f t="shared" si="210"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R132" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="R132" s="19">
         <f t="shared" si="210"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S132" s="22" t="e">
+        <v>0</v>
+      </c>
+      <c r="S132" s="19">
         <f t="shared" si="210"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T132" s="22">
+        <v>0</v>
+      </c>
+      <c r="T132" s="19">
         <f t="shared" si="210"/>
         <v>15.966865520728009</v>
       </c>
-      <c r="U132" s="22">
+      <c r="U132" s="19">
         <f t="shared" si="210"/>
         <v>16.134352517985615</v>
       </c>
-      <c r="V132" s="22">
+      <c r="V132" s="19">
         <f t="shared" si="210"/>
         <v>47.846695424836597</v>
       </c>
-      <c r="W132" s="22">
+      <c r="W132" s="19">
         <f t="shared" si="210"/>
         <v>15.351789226743662</v>
       </c>
-      <c r="X132" s="22">
+      <c r="X132" s="19">
         <f t="shared" si="210"/>
         <v>15.89817266896892</v>
       </c>
-      <c r="Y132" s="22">
+      <c r="Y132" s="19">
         <f t="shared" si="210"/>
         <v>13.364549687181727</v>
       </c>
-      <c r="Z132" s="22">
+      <c r="Z132" s="19">
         <f t="shared" si="210"/>
         <v>33.28673514962037</v>
       </c>
-      <c r="AA132" s="22">
+      <c r="AA132" s="19">
         <f>AA129/AA72</f>
         <v>26.271969892978948</v>
       </c>
     </row>
-    <row r="133" spans="2:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="22" t="s">
+    <row r="133" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="19" t="s">
         <v>129</v>
       </c>
-      <c r="N133" s="22" t="e">
+      <c r="N133" s="19" t="e">
         <f>N129/N115</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O133" s="22" t="e">
+      <c r="O133" s="19" t="e">
         <f t="shared" ref="O133:Z133" si="211">O129/O115</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P133" s="22" t="e">
+      <c r="P133" s="19" t="e">
         <f t="shared" si="211"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q133" s="22" t="e">
+      <c r="Q133" s="19" t="e">
         <f t="shared" si="211"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R133" s="22" t="e">
+      <c r="R133" s="19" t="e">
         <f t="shared" si="211"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S133" s="22">
+      <c r="S133" s="19">
         <f t="shared" si="211"/>
         <v>0</v>
       </c>
-      <c r="T133" s="22">
+      <c r="T133" s="19">
         <f t="shared" si="211"/>
         <v>2.9738662900188326</v>
       </c>
-      <c r="U133" s="22">
+      <c r="U133" s="19">
         <f t="shared" si="211"/>
         <v>2.8113022158315824</v>
       </c>
-      <c r="V133" s="22">
+      <c r="V133" s="19">
         <f t="shared" si="211"/>
         <v>3.9044569368293045</v>
       </c>
-      <c r="W133" s="22">
+      <c r="W133" s="19">
         <f t="shared" si="211"/>
         <v>7.6082761704601349</v>
       </c>
-      <c r="X133" s="22">
+      <c r="X133" s="19">
         <f t="shared" si="211"/>
         <v>12.670282299284423</v>
       </c>
-      <c r="Y133" s="22">
+      <c r="Y133" s="19">
         <f t="shared" si="211"/>
         <v>30.865104166666669</v>
       </c>
-      <c r="Z133" s="22">
+      <c r="Z133" s="19">
         <f t="shared" si="211"/>
         <v>-38.76334951456311</v>
       </c>
-      <c r="AA133" s="22">
+      <c r="AA133" s="19">
         <f>AA129/AA115</f>
         <v>143.56719794344474</v>
       </c>
     </row>
-    <row r="134" spans="2:37" s="22" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="22" t="s">
+    <row r="134" spans="2:37" s="19" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="19" t="s">
         <v>130</v>
       </c>
-      <c r="N134" s="22" t="e">
+      <c r="N134" s="19" t="e">
         <f>N129/N120</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O134" s="22" t="e">
+      <c r="O134" s="19" t="e">
         <f t="shared" ref="O134:Z134" si="212">O129/O120</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P134" s="22" t="e">
+      <c r="P134" s="19" t="e">
         <f t="shared" si="212"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q134" s="22" t="e">
+      <c r="Q134" s="19" t="e">
         <f t="shared" si="212"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R134" s="22" t="e">
+      <c r="R134" s="19" t="e">
         <f t="shared" si="212"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S134" s="22" t="e">
+      <c r="S134" s="19" t="e">
         <f t="shared" si="212"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T134" s="22">
+      <c r="T134" s="19">
         <f t="shared" si="212"/>
         <v>11.373325064020488</v>
       </c>
-      <c r="U134" s="22">
+      <c r="U134" s="19">
         <f t="shared" si="212"/>
         <v>12.598256918628667</v>
       </c>
-      <c r="V134" s="22">
+      <c r="V134" s="19">
         <f t="shared" si="212"/>
         <v>13.407590476190475</v>
       </c>
-      <c r="W134" s="22">
+      <c r="W134" s="19">
         <f t="shared" si="212"/>
         <v>13.198656426964549</v>
       </c>
-      <c r="X134" s="22">
+      <c r="X134" s="19">
         <f t="shared" si="212"/>
         <v>13.920343844492441</v>
       </c>
-      <c r="Y134" s="22">
+      <c r="Y134" s="19">
         <f t="shared" si="212"/>
         <v>13.358718731820826</v>
       </c>
-      <c r="Z134" s="22">
+      <c r="Z134" s="19">
         <f t="shared" si="212"/>
         <v>44.468377088305488</v>
       </c>
-      <c r="AA134" s="22">
+      <c r="AA134" s="19">
         <f>AA129/AA120</f>
         <v>26.374328217237309</v>
       </c>
     </row>
     <row r="135" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="136" spans="2:37" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="137" spans="2:37" s="24" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="24" t="s">
+    <row r="137" spans="2:37" s="21" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="21" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="138" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="25" t="s">
+    <row r="138" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B138" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="N138" s="25" t="e">
+      <c r="N138" s="15" t="e">
         <f>(N51-M51)/ABS(M51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O138" s="25" t="e">
+      <c r="O138" s="15" t="e">
         <f t="shared" ref="O138:AK138" si="213">(O51-N51)/ABS(N51)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P138" s="25" t="e">
+      <c r="P138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q138" s="25" t="e">
+      <c r="Q138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R138" s="25" t="e">
+      <c r="R138" s="15">
         <f t="shared" si="213"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S138" s="25" t="e">
+        <v>2.9451317912856375E-2</v>
+      </c>
+      <c r="S138" s="15">
         <f t="shared" si="213"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T138" s="25" t="e">
+        <v>-1.2802090137165251E-3</v>
+      </c>
+      <c r="T138" s="15">
         <f t="shared" si="213"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U138" s="25">
+        <v>-3.0842881808193376E-2</v>
+      </c>
+      <c r="U138" s="15">
         <f t="shared" si="213"/>
         <v>2.0109590520150079E-2</v>
       </c>
-      <c r="V138" s="25">
+      <c r="V138" s="15">
         <f t="shared" si="213"/>
         <v>5.3953217612193058E-2</v>
       </c>
-      <c r="W138" s="25">
+      <c r="W138" s="15">
         <f t="shared" si="213"/>
         <v>-8.1594737767065849E-3</v>
       </c>
-      <c r="X138" s="25">
+      <c r="X138" s="15">
         <f t="shared" si="213"/>
         <v>-1.1086923505290336E-2</v>
       </c>
-      <c r="Y138" s="25">
+      <c r="Y138" s="15">
         <f t="shared" si="213"/>
         <v>3.6116514794716906E-2</v>
       </c>
-      <c r="Z138" s="25">
+      <c r="Z138" s="15">
         <f t="shared" si="213"/>
         <v>4.8444872650016055E-2</v>
       </c>
-      <c r="AA138" s="25">
+      <c r="AA138" s="15">
         <f t="shared" si="213"/>
         <v>0.17704995287464656</v>
       </c>
-      <c r="AB138" s="25">
+      <c r="AB138" s="15">
         <f t="shared" si="213"/>
         <v>-1</v>
       </c>
-      <c r="AC138" s="25" t="e">
+      <c r="AC138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD138" s="25" t="e">
+      <c r="AD138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE138" s="25" t="e">
+      <c r="AE138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF138" s="25" t="e">
+      <c r="AF138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG138" s="25" t="e">
+      <c r="AG138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH138" s="25" t="e">
+      <c r="AH138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI138" s="25" t="e">
+      <c r="AI138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ138" s="25" t="e">
+      <c r="AJ138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK138" s="25" t="e">
+      <c r="AK138" s="15" t="e">
         <f t="shared" si="213"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="139" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="25" t="s">
+    <row r="139" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B139" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="N139" s="25" t="e">
+      <c r="N139" s="15" t="e">
         <f>(N72-M72)/ABS(M72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O139" s="25" t="e">
+      <c r="O139" s="15" t="e">
         <f t="shared" ref="O139:AK139" si="214">(O72-N72)/ABS(N72)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P139" s="25" t="e">
+      <c r="P139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q139" s="25" t="e">
+      <c r="Q139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R139" s="25" t="e">
+      <c r="R139" s="15">
         <f t="shared" si="214"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S139" s="25" t="e">
+        <v>2.9451317912856375E-2</v>
+      </c>
+      <c r="S139" s="15">
         <f t="shared" si="214"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="T139" s="25" t="e">
+        <v>-1.2802090137165251E-3</v>
+      </c>
+      <c r="T139" s="15">
         <f t="shared" si="214"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="U139" s="25">
+        <v>-0.76714801444043323</v>
+      </c>
+      <c r="U139" s="15">
         <f t="shared" si="214"/>
         <v>6.1903156948657452E-2</v>
       </c>
-      <c r="V139" s="25">
+      <c r="V139" s="15">
         <f t="shared" si="214"/>
         <v>-0.59532374100719421</v>
       </c>
-      <c r="W139" s="25">
+      <c r="W139" s="15">
         <f t="shared" si="214"/>
         <v>1.8975163398692811</v>
       </c>
-      <c r="X139" s="25">
+      <c r="X139" s="15">
         <f t="shared" si="214"/>
         <v>-8.5536407109988277E-2</v>
       </c>
-      <c r="Y139" s="25">
+      <c r="Y139" s="15">
         <f t="shared" si="214"/>
         <v>0.35629008386778488</v>
       </c>
-      <c r="Z139" s="25">
+      <c r="Z139" s="15">
         <f t="shared" si="214"/>
         <v>-0.51134875600174601</v>
       </c>
-      <c r="AA139" s="25">
+      <c r="AA139" s="15">
         <f t="shared" si="214"/>
         <v>0.26589251153788895</v>
       </c>
-      <c r="AB139" s="25">
+      <c r="AB139" s="15">
         <f t="shared" si="214"/>
         <v>-1</v>
       </c>
-      <c r="AC139" s="25" t="e">
+      <c r="AC139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD139" s="25" t="e">
+      <c r="AD139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE139" s="25" t="e">
+      <c r="AE139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF139" s="25" t="e">
+      <c r="AF139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG139" s="25" t="e">
+      <c r="AG139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH139" s="25" t="e">
+      <c r="AH139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI139" s="25" t="e">
+      <c r="AI139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ139" s="25" t="e">
+      <c r="AJ139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK139" s="25" t="e">
+      <c r="AK139" s="15" t="e">
         <f t="shared" si="214"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="140" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="25" t="s">
+    <row r="140" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="N140" s="25" t="e">
+      <c r="N140" s="15" t="e">
         <f>(N120-M120)/ABS(M120)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O140" s="25" t="e">
+      <c r="O140" s="15" t="e">
         <f t="shared" ref="O140:AK140" si="215">(O120-N120)/ABS(N120)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P140" s="25" t="e">
+      <c r="P140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q140" s="25" t="e">
+      <c r="Q140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R140" s="25" t="e">
+      <c r="R140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S140" s="25" t="e">
+      <c r="S140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T140" s="25" t="e">
+      <c r="T140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U140" s="25">
+      <c r="U140" s="15">
         <f t="shared" si="215"/>
         <v>-3.1290012804097309E-2</v>
       </c>
-      <c r="V140" s="25">
+      <c r="V140" s="15">
         <f t="shared" si="215"/>
         <v>0.12763320941759604</v>
       </c>
-      <c r="W140" s="25">
+      <c r="W140" s="15">
         <f t="shared" si="215"/>
         <v>-5.5604395604395604E-2</v>
       </c>
-      <c r="X140" s="25">
+      <c r="X140" s="15">
         <f t="shared" si="215"/>
         <v>-0.10208672717399736</v>
       </c>
-      <c r="Y140" s="25">
+      <c r="Y140" s="15">
         <f t="shared" si="215"/>
         <v>0.18807775377969763</v>
       </c>
-      <c r="Z140" s="25">
+      <c r="Z140" s="15">
         <f t="shared" si="215"/>
         <v>-0.63438045375218155</v>
       </c>
-      <c r="AA140" s="25">
+      <c r="AA140" s="15">
         <f t="shared" si="215"/>
         <v>0.68456642800318213</v>
       </c>
-      <c r="AB140" s="25">
+      <c r="AB140" s="15">
         <f t="shared" si="215"/>
         <v>-1</v>
       </c>
-      <c r="AC140" s="25" t="e">
+      <c r="AC140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD140" s="25" t="e">
+      <c r="AD140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE140" s="25" t="e">
+      <c r="AE140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF140" s="25" t="e">
+      <c r="AF140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG140" s="25" t="e">
+      <c r="AG140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH140" s="25" t="e">
+      <c r="AH140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI140" s="25" t="e">
+      <c r="AI140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ140" s="25" t="e">
+      <c r="AJ140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK140" s="25" t="e">
+      <c r="AK140" s="15" t="e">
         <f t="shared" si="215"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="141" spans="2:37" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="25" t="s">
+    <row r="141" spans="2:37" s="15" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="N141" s="25" t="e">
+      <c r="N141" s="15" t="e">
         <f>ABS((N125-M125)/ABS(M125))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O141" s="25" t="e">
+      <c r="O141" s="15" t="e">
         <f t="shared" ref="O141:AK141" si="216">ABS((O125-N125)/ABS(N125))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P141" s="25" t="e">
+      <c r="P141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q141" s="25" t="e">
+      <c r="Q141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="R141" s="25" t="e">
+      <c r="R141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="S141" s="25" t="e">
+      <c r="S141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T141" s="25" t="e">
+      <c r="T141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U141" s="25">
+      <c r="U141" s="15">
         <f t="shared" si="216"/>
         <v>3.541912632821724E-2</v>
       </c>
-      <c r="V141" s="25">
+      <c r="V141" s="15">
         <f t="shared" si="216"/>
         <v>0.19346256176358798</v>
       </c>
-      <c r="W141" s="25">
+      <c r="W141" s="15">
         <f t="shared" si="216"/>
         <v>6.6242038216560509E-2</v>
       </c>
-      <c r="X141" s="25">
+      <c r="X141" s="15">
         <f t="shared" si="216"/>
         <v>4.7066848567530697E-2</v>
       </c>
-      <c r="Y141" s="25">
+      <c r="Y141" s="15">
         <f t="shared" si="216"/>
         <v>2.280130293159609E-3</v>
       </c>
-      <c r="Z141" s="25">
+      <c r="Z141" s="15">
         <f t="shared" si="216"/>
         <v>0.12863206007182501</v>
       </c>
-      <c r="AA141" s="25">
+      <c r="AA141" s="15">
         <f t="shared" si="216"/>
         <v>6.103557998264391E-2</v>
       </c>
-      <c r="AB141" s="25">
+      <c r="AB141" s="15">
         <f t="shared" si="216"/>
         <v>1</v>
       </c>
-      <c r="AC141" s="25" t="e">
+      <c r="AC141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD141" s="25" t="e">
+      <c r="AD141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE141" s="25" t="e">
+      <c r="AE141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF141" s="25" t="e">
+      <c r="AF141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG141" s="25" t="e">
+      <c r="AG141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH141" s="25" t="e">
+      <c r="AH141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI141" s="25" t="e">
+      <c r="AI141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ141" s="25" t="e">
+      <c r="AJ141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK141" s="25" t="e">
+      <c r="AK141" s="15" t="e">
         <f t="shared" si="216"/>
         <v>#DIV/0!</v>
       </c>

--- a/ORCL/ORCL.xlsx
+++ b/ORCL/ORCL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/ORCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1250" documentId="8_{784ADDE8-1A76-4D28-8788-11FE1C44B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8518D79-9951-4EC1-B7DA-5534E431FB34}"/>
+  <xr:revisionPtr revIDLastSave="1315" documentId="8_{784ADDE8-1A76-4D28-8788-11FE1C44B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D66A445-206C-4B65-AFE6-F2C3B090C41D}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="870" windowWidth="26720" windowHeight="17120" activeTab="2" xr2:uid="{C079B699-8A16-46DB-B769-137A43C54A59}"/>
+    <workbookView xWindow="5100" yWindow="2560" windowWidth="26720" windowHeight="17120" activeTab="1" xr2:uid="{C079B699-8A16-46DB-B769-137A43C54A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -52,11 +52,18 @@
       </extLst>
     </bk>
   </futureMetadata>
-  <futureMetadata name="XLRICHVALUE" count="1">
+  <futureMetadata name="XLRICHVALUE" count="2">
     <bk>
       <extLst>
         <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
           <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="9"/>
         </ext>
       </extLst>
     </bk>
@@ -66,16 +73,19 @@
       <rc t="1" v="0"/>
     </bk>
   </cellMetadata>
-  <valueMetadata count="1">
+  <valueMetadata count="2">
     <bk>
       <rc t="2" v="0"/>
+    </bk>
+    <bk>
+      <rc t="2" v="1"/>
     </bk>
   </valueMetadata>
 </metadata>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="156">
   <si>
     <t>Price</t>
   </si>
@@ -559,14 +569,78 @@
   <si>
     <t>FCF %</t>
   </si>
+  <si>
+    <t>Oracle Cloud Customers</t>
+  </si>
+  <si>
+    <t>Bank of America</t>
+  </si>
+  <si>
+    <t>Ahold USA</t>
+  </si>
+  <si>
+    <t>Hitachi</t>
+  </si>
+  <si>
+    <t>Medtronic</t>
+  </si>
+  <si>
+    <t>United Health Group</t>
+  </si>
+  <si>
+    <t>Zurich</t>
+  </si>
+  <si>
+    <t>Universal</t>
+  </si>
+  <si>
+    <t>CVS Health Corporation</t>
+  </si>
+  <si>
+    <t>Diebold Nixdorf</t>
+  </si>
+  <si>
+    <t>Labcorp</t>
+  </si>
+  <si>
+    <t>McKesson Corporation</t>
+  </si>
+  <si>
+    <t>FedEx</t>
+  </si>
+  <si>
+    <t>Airbnb</t>
+  </si>
+  <si>
+    <t>Genesys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exxon Mobil </t>
+  </si>
+  <si>
+    <t>Adidas</t>
+  </si>
+  <si>
+    <t>Arconic</t>
+  </si>
+  <si>
+    <t>Uber Freight</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Seattle Sounders FC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -689,7 +763,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -716,6 +790,8 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -843,7 +919,7 @@
 </file>
 
 <file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
-<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="10">
   <rv s="0">
     <v>http://en.wikipedia.org/wiki/Public_domain</v>
     <v>Public domain</v>
@@ -881,12 +957,12 @@
     <v>Finance</v>
     <v>5</v>
     <v>127.54</v>
-    <v>61.65</v>
-    <v>1.0224</v>
-    <v>1.61</v>
-    <v>1.91E-3</v>
-    <v>1.4859000000000001E-2</v>
-    <v>0.21</v>
+    <v>79.430000000000007</v>
+    <v>1.0289999999999999</v>
+    <v>-2.67</v>
+    <v>-1.2959999999999998E-3</v>
+    <v>-2.5924999999999997E-2</v>
+    <v>-0.13</v>
     <v>USD</v>
     <v>Oracle Corporation provides products and services that address enterprise information technology (IT) environments. The Company’s businesses include cloud and license, hardware, and services. Its products and services include enterprise applications and infrastructure offerings that are delivered worldwide through a variety of flexible and interoperable IT deployment models. Its cloud and license business markets, sells, and delivers a spectrum of enterprise applications and infrastructure technologies through its cloud and license offerings. Its hardware business provides a selection of enterprise hardware products and hardware-related software products, including Oracle Engineered Systems, servers, storage, industry-specific hardware offerings, operating systems, virtualization, management and other hardware-related software, and related hardware support. Its services business provides consulting services and advanced customer service. It sells to customers all over the world.</v>
     <v>164000</v>
@@ -894,36 +970,89 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2300 Oracle Way, AUSTIN, TX, 78741 US</v>
-    <v>110.53</v>
+    <v>102.24939999999999</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45205.998375253905</v>
+    <v>45275.041589745313</v>
     <v>4</v>
-    <v>107.58</v>
-    <v>301221800000</v>
+    <v>99.87</v>
+    <v>275771855040</v>
     <v>ORACLE CORPORATION</v>
     <v>ORACLE CORPORATION</v>
-    <v>107.93</v>
-    <v>32.222299999999997</v>
-    <v>108.35</v>
-    <v>109.96</v>
-    <v>110.17</v>
-    <v>2739376000</v>
+    <v>101.87</v>
+    <v>28.473099999999999</v>
+    <v>102.99</v>
+    <v>100.32</v>
+    <v>100.18</v>
+    <v>2748922000</v>
     <v>ORCL</v>
     <v>ORACLE CORPORATION (XNYS:ORCL)</v>
-    <v>8246950</v>
-    <v>13956284</v>
+    <v>22865164</v>
+    <v>9876758</v>
     <v>2005</v>
   </rv>
   <rv s="4">
     <v>5</v>
   </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=c3orf2&amp;q=XNAS%3aRIVN&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="5">
+    <v>en-US</v>
+    <v>c3orf2</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>7</v>
+    <v>RIVIAN AUTOMOTIVE, INC. (XNAS:RIVN)</v>
+    <v>8</v>
+    <v>9</v>
+    <v>Finance</v>
+    <v>10</v>
+    <v>28.06</v>
+    <v>11.68</v>
+    <v>2.3260000000000001</v>
+    <v>2.75</v>
+    <v>-8.9170000000000004E-4</v>
+    <v>0.139736</v>
+    <v>-0.02</v>
+    <v>USD</v>
+    <v>Rivian Automotive, Inc. designs, develops and manufactures electric vehicles and accessories. It sells its vehicles directly to customers in the consumer and commercial markets. The Company’s R1 platform offers the first-generation consumer vehicles: the R1T, a two-row five-passenger pickup truck, and the R1S, a three-row seven-passenger sport utility vehicle (SUV). In the commercial market, the Company offers Rivian Commercial Vehicle (RCV) platform. The Company’s vehicle on this platform is Electric Delivery Van (EDV), designed and engineered by Rivian in collaboration with Amazon. It also offers a variety of services, including financing and insurance, vehicle maintenance and repair, charging and FleetOS solutions. Its FleetOS unifies full fleet telematics, charging, maintenance, purchasing and resale into a single platform. It also offers A Better Routeplanner (ABRP) app, which offers electric vehicle (EV) trip planning and has a community of EV drivers in North America and Europe.</v>
+    <v>14122</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>14600 Myford Road, IRVINE, CA, 92618 US</v>
+    <v>22.535</v>
+    <v>Automobiles &amp; Auto Parts</v>
+    <v>Stock</v>
+    <v>45275.041633645313</v>
+    <v>7</v>
+    <v>20.3</v>
+    <v>21481605768</v>
+    <v>RIVIAN AUTOMOTIVE, INC.</v>
+    <v>RIVIAN AUTOMOTIVE, INC.</v>
+    <v>20.315000000000001</v>
+    <v>19.68</v>
+    <v>22.43</v>
+    <v>22.41</v>
+    <v>957717600</v>
+    <v>RIVN</v>
+    <v>RIVIAN AUTOMOTIVE, INC. (XNAS:RIVN)</v>
+    <v>82961234</v>
+    <v>39998202</v>
+    <v>2015</v>
+  </rv>
+  <rv s="4">
+    <v>8</v>
+  </rv>
 </rvData>
 </file>
 
 <file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
-<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="6">
   <s t="_hyperlink">
     <k n="Address" t="s"/>
     <k n="Text" t="s"/>
@@ -991,12 +1120,58 @@
   <s t="_linkedentity">
     <k n="%cvi" t="r"/>
   </s>
+  <s t="_linkedentitycore">
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
 </rvStructures>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
-  <spbArrays count="1">
+  <spbArrays count="2">
     <a count="46">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
@@ -1045,8 +1220,54 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
+    <a count="44">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
   </spbArrays>
-  <spbData count="7">
+  <spbData count="11">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1098,21 +1319,66 @@
       <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
+      <v>Source: Nasdaq Last Sale</v>
+      <v>GMT</v>
+      <v>Real-Time Nasdaq Last Sale</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="6">
+      <v>Powered by Refinitiv</v>
+    </spb>
+    <spb s="0">
+      <v>1</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="7">
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="8">
+      <v>1</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
+    </spb>
+    <spb s="5">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
       <v>Delayed 15 minutes</v>
       <v>from close</v>
       <v>from close</v>
     </spb>
-    <spb s="6">
-      <v>Powered by Refinitiv</v>
-    </spb>
   </spbData>
 </supportingPropertyBags>
 </file>
 
 <file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
-<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="9">
   <s>
     <k n="^Order" t="spba"/>
     <k n="TitleProperty" t="s"/>
@@ -1172,6 +1438,36 @@
   </s>
   <s>
     <k n="name" t="s"/>
+  </s>
+  <s>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
 </spbStructures>
 </file>
@@ -1557,7 +1853,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>109.96</v>
+        <v>100.32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1566,7 +1862,7 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>2739.3760000000002</v>
+        <v>2748.922</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1575,7 +1871,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
-        <v>301221.78496000002</v>
+        <v>275771.85503999999</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1603,15 +1899,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1D5E79-03FC-4403-8754-46A3C05123EA}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.90625" customWidth="1"/>
+    <col min="2" max="2" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -1700,38 +1998,190 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="1:1" s="8" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="7"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="22">
+        <f>A27*B30</f>
+        <v>38308704000</v>
+      </c>
+      <c r="C28" s="23">
+        <f>A28-A32</f>
+        <v>16827098232</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="2" cm="1">
+        <f t="array" ref="A30">_FV(C30,"Price")</f>
+        <v>22.43</v>
+      </c>
+      <c r="B30" s="3" cm="1">
+        <f t="array" ref="B30">_FV(C30,"Shares outstanding",TRUE)</f>
+        <v>957717600</v>
+      </c>
+      <c r="C30" t="e" vm="2">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="2">
+        <f>A30*B30</f>
+        <v>21481605768</v>
+      </c>
+      <c r="B32">
+        <v>19.68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B33" s="22">
+        <f>B32*B30</f>
+        <v>18847882368</v>
+      </c>
+      <c r="C33" s="2">
+        <f>A32-B33</f>
+        <v>2633723400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>155</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1742,7 +2192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C84B9B-EA17-4C2C-B5F3-7AFFA9F9C71D}">
   <dimension ref="B1:AK141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="7" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>

--- a/ORCL/ORCL.xlsx
+++ b/ORCL/ORCL.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/534a1defcf7f9d1a/Company Models CloudSave/ORCL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1315" documentId="8_{784ADDE8-1A76-4D28-8788-11FE1C44B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D66A445-206C-4B65-AFE6-F2C3B090C41D}"/>
+  <xr:revisionPtr revIDLastSave="1322" documentId="8_{784ADDE8-1A76-4D28-8788-11FE1C44B4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2B800B1E-BF48-4065-A1F5-A01DAA0F39D4}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="2560" windowWidth="26720" windowHeight="17120" activeTab="1" xr2:uid="{C079B699-8A16-46DB-B769-137A43C54A59}"/>
+    <workbookView xWindow="43620" yWindow="1880" windowWidth="29050" windowHeight="19020" activeTab="3" xr2:uid="{C079B699-8A16-46DB-B769-137A43C54A59}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Info" sheetId="2" r:id="rId2"/>
-    <sheet name="Model" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
+    <sheet name="Model" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -809,6 +810,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
 <rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
   <global>
@@ -956,40 +961,40 @@
     <v>4</v>
     <v>Finance</v>
     <v>5</v>
-    <v>127.54</v>
-    <v>79.430000000000007</v>
-    <v>1.0289999999999999</v>
-    <v>-2.67</v>
-    <v>-1.2959999999999998E-3</v>
-    <v>-2.5924999999999997E-2</v>
-    <v>-0.13</v>
+    <v>146.59</v>
+    <v>99.26</v>
+    <v>1.018</v>
+    <v>3.7</v>
+    <v>3.9439999999999996E-3</v>
+    <v>2.7271999999999998E-2</v>
+    <v>0.55000000000000004</v>
     <v>USD</v>
-    <v>Oracle Corporation provides products and services that address enterprise information technology (IT) environments. The Company’s businesses include cloud and license, hardware, and services. Its products and services include enterprise applications and infrastructure offerings that are delivered worldwide through a variety of flexible and interoperable IT deployment models. Its cloud and license business markets, sells, and delivers a spectrum of enterprise applications and infrastructure technologies through its cloud and license offerings. Its hardware business provides a selection of enterprise hardware products and hardware-related software products, including Oracle Engineered Systems, servers, storage, industry-specific hardware offerings, operating systems, virtualization, management and other hardware-related software, and related hardware support. Its services business provides consulting services and advanced customer service. It sells to customers all over the world.</v>
-    <v>164000</v>
+    <v>Oracle Corporation offers integrated suites of applications plus secure, autonomous infrastructure in the Oracle Cloud. The Company's segments include cloud and license, hardware, and services. The cloud and license segment markets, sells and delivers a broad spectrum of enterprise applications and infrastructure technologies through its cloud and license offerings. The hardware segment provides a broad selection of enterprise hardware products and hardware-related software products including Oracle Engineered Systems, servers, storage, operating systems, virtualization, management and other hardware-related software and related hardware support. The services segment helps customers and partners maximize the performance of their investments in Oracle applications and infrastructure technologies. Its products and services are delivered worldwide through a variety of flexible and interoperable IT deployment models. These models include on-premise, cloud-based and hybrid deployments.</v>
+    <v>159000</v>
     <v>New York Stock Exchange</v>
     <v>XNYS</v>
     <v>XNYS</v>
     <v>2300 Oracle Way, AUSTIN, TX, 78741 US</v>
-    <v>102.24939999999999</v>
+    <v>141.55000000000001</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45275.041589745313</v>
+    <v>45504.977211075784</v>
     <v>4</v>
-    <v>99.87</v>
-    <v>275771855040</v>
+    <v>138.66</v>
+    <v>384084208200</v>
     <v>ORACLE CORPORATION</v>
     <v>ORACLE CORPORATION</v>
-    <v>101.87</v>
-    <v>28.473099999999999</v>
-    <v>102.99</v>
-    <v>100.32</v>
-    <v>100.18</v>
-    <v>2748922000</v>
+    <v>139.69</v>
+    <v>36.591799999999999</v>
+    <v>135.66999999999999</v>
+    <v>139.37</v>
+    <v>140</v>
+    <v>2755860000</v>
     <v>ORCL</v>
     <v>ORACLE CORPORATION (XNYS:ORCL)</v>
-    <v>22865164</v>
-    <v>9876758</v>
+    <v>7187801</v>
+    <v>7750159</v>
     <v>2005</v>
   </rv>
   <rv s="4">
@@ -1010,39 +1015,40 @@
     <v>8</v>
     <v>9</v>
     <v>Finance</v>
-    <v>10</v>
-    <v>28.06</v>
-    <v>11.68</v>
-    <v>2.3260000000000001</v>
-    <v>2.75</v>
-    <v>-8.9170000000000004E-4</v>
-    <v>0.139736</v>
-    <v>-0.02</v>
+    <v>5</v>
+    <v>27.78</v>
+    <v>8.26</v>
+    <v>2.298</v>
+    <v>0.19</v>
+    <v>2.7420000000000001E-3</v>
+    <v>1.1714E-2</v>
+    <v>4.4999999999999998E-2</v>
     <v>USD</v>
-    <v>Rivian Automotive, Inc. designs, develops and manufactures electric vehicles and accessories. It sells its vehicles directly to customers in the consumer and commercial markets. The Company’s R1 platform offers the first-generation consumer vehicles: the R1T, a two-row five-passenger pickup truck, and the R1S, a three-row seven-passenger sport utility vehicle (SUV). In the commercial market, the Company offers Rivian Commercial Vehicle (RCV) platform. The Company’s vehicle on this platform is Electric Delivery Van (EDV), designed and engineered by Rivian in collaboration with Amazon. It also offers a variety of services, including financing and insurance, vehicle maintenance and repair, charging and FleetOS solutions. Its FleetOS unifies full fleet telematics, charging, maintenance, purchasing and resale into a single platform. It also offers A Better Routeplanner (ABRP) app, which offers electric vehicle (EV) trip planning and has a community of EV drivers in North America and Europe.</v>
-    <v>14122</v>
+    <v>Rivian Automotive, Inc. is an automotive manufacturer, which is engaged in developing and building category-defining electric vehicles (EVs) and accessories. The Company’s R1 platform offers the first-generation consumer vehicles: the R1T, a two-row five-passenger pickup truck, and the R1S, a three-row seven-passenger sport utility vehicle (SUV). In the commercial market, the Company offers Rivian Commercial Vehicle (RCV) platform. The Company’s vehicle on this platform is Electric Delivery Van (EDV), designed and engineered by Rivian in collaboration with Amazon. Alongside its commercial vehicles, it offers FleetOS, its proprietary, end-to-end centralized fleet management subscription platform. It also offers a variety of services, including financing and insurance, vehicle maintenance and repair, charging and FleetOS solutions. Its value-added services include digitally enabled financing and leasing, telematics-based insurance, proactive vehicle service, software services, and more.</v>
+    <v>16790</v>
     <v>Nasdaq Stock Market</v>
     <v>XNAS</v>
     <v>XNAS</v>
     <v>14600 Myford Road, IRVINE, CA, 92618 US</v>
-    <v>22.535</v>
+    <v>17.05</v>
     <v>Automobiles &amp; Auto Parts</v>
     <v>Stock</v>
-    <v>45275.041633645313</v>
+    <v>45504.978232140624</v>
     <v>7</v>
-    <v>20.3</v>
-    <v>21481605768</v>
+    <v>16.34</v>
+    <v>16333207764</v>
     <v>RIVIAN AUTOMOTIVE, INC.</v>
     <v>RIVIAN AUTOMOTIVE, INC.</v>
-    <v>20.315000000000001</v>
-    <v>19.68</v>
-    <v>22.43</v>
-    <v>22.41</v>
-    <v>957717600</v>
+    <v>16.36</v>
+    <v>0</v>
+    <v>16.22</v>
+    <v>16.41</v>
+    <v>16.454999999999998</v>
+    <v>995320400</v>
     <v>RIVN</v>
     <v>RIVIAN AUTOMOTIVE, INC. (XNAS:RIVN)</v>
-    <v>82961234</v>
-    <v>39998202</v>
+    <v>27450997</v>
+    <v>60039265</v>
     <v>2015</v>
   </rv>
   <rv s="4">
@@ -1156,6 +1162,7 @@
     <k n="Name" t="s"/>
     <k n="Official name" t="s"/>
     <k n="Open"/>
+    <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
     <k n="Price (Extended hours)"/>
@@ -1220,7 +1227,7 @@
       <v t="s">ExchangeID</v>
       <v t="s">%ProviderInfo</v>
     </a>
-    <a count="44">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -1252,6 +1259,7 @@
       <v t="s">Volume average</v>
       <v t="s">Market cap</v>
       <v t="s">Beta</v>
+      <v t="s">P/E</v>
       <v t="s">Shares outstanding</v>
       <v t="s">Description</v>
       <v t="s">Employees</v>
@@ -1267,7 +1275,7 @@
       <v t="s">%ProviderInfo</v>
     </a>
   </spbArrays>
-  <spbData count="11">
+  <spbData count="10">
     <spb s="0">
       <v>0</v>
       <v>Name</v>
@@ -1342,6 +1350,7 @@
     <spb s="8">
       <v>1</v>
       <v>2</v>
+      <v>2</v>
       <v>1</v>
       <v>3</v>
       <v>1</v>
@@ -1362,16 +1371,6 @@
       <v>1</v>
       <v>1</v>
       <v>6</v>
-    </spb>
-    <spb s="5">
-      <v>at close</v>
-      <v>from previous close</v>
-      <v>from previous close</v>
-      <v>Source: Nasdaq</v>
-      <v>GMT</v>
-      <v>Delayed 15 minutes</v>
-      <v>from close</v>
-      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -1447,6 +1446,7 @@
   </s>
   <s>
     <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
     <k n="Beta" t="i"/>
     <k n="High" t="i"/>
     <k n="Name" t="i"/>
@@ -1534,9 +1534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1574,7 +1574,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1680,7 +1680,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1822,7 +1822,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1853,7 +1853,7 @@
       </c>
       <c r="B2" s="2" cm="1">
         <f t="array" ref="B2">_FV(A1,"Price")</f>
-        <v>100.32</v>
+        <v>139.37</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="B3" s="3" cm="1">
         <f t="array" ref="B3">_FV(A1,"Shares outstanding",TRUE)/1000000</f>
-        <v>2748.922</v>
+        <v>2755.86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B4" s="5">
         <f>B2*B3</f>
-        <v>275771.85503999999</v>
+        <v>384084.20820000005</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -1901,7 +1901,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA1D5E79-03FC-4403-8754-46A3C05123EA}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
@@ -2039,21 +2039,21 @@
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <f>A27*B30</f>
-        <v>38308704000</v>
+        <v>39812816000</v>
       </c>
       <c r="C28" s="23">
         <f>A28-A32</f>
-        <v>16827098232</v>
+        <v>23479608236</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="2" cm="1">
         <f t="array" ref="A30">_FV(C30,"Price")</f>
-        <v>22.43</v>
+        <v>16.41</v>
       </c>
       <c r="B30" s="3" cm="1">
         <f t="array" ref="B30">_FV(C30,"Shares outstanding",TRUE)</f>
-        <v>957717600</v>
+        <v>995320400</v>
       </c>
       <c r="C30" t="e" vm="2">
         <v>#VALUE!</v>
@@ -2062,7 +2062,7 @@
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <f>A30*B30</f>
-        <v>21481605768</v>
+        <v>16333207764</v>
       </c>
       <c r="B32">
         <v>19.68</v>
@@ -2071,11 +2071,11 @@
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B33" s="22">
         <f>B32*B30</f>
-        <v>18847882368</v>
+        <v>19587905472</v>
       </c>
       <c r="C33" s="2">
         <f>A32-B33</f>
-        <v>2633723400</v>
+        <v>-3254697708</v>
       </c>
     </row>
     <row r="34" spans="1:3" s="6" customFormat="1" x14ac:dyDescent="0.35">
@@ -2189,14 +2189,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95EE7B85-B709-4DE3-B228-7143827D12B7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C84B9B-EA17-4C2C-B5F3-7AFFA9F9C71D}">
   <dimension ref="B1:AK141"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C29" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="7" topLeftCell="M38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="Q51" sqref="Q51"/>
+      <selection pane="bottomRight" activeCell="AA52" sqref="AA52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
